--- a/arabic/modernmt.xlsx
+++ b/arabic/modernmt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spreadhseets\arabic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9386B-DAF1-4562-ADD6-18E46804BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1FAF87-0F0B-4583-8AA3-582501C5BE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="contentType">JobInfo!$B$23:$B$37</definedName>
     <definedName name="country_standards">CriteriaDefinitions!#REF!</definedName>
     <definedName name="Design">CriteriaDefinitions!$G$49:$G$53</definedName>
-    <definedName name="errorCritera">ReviewEnvironment!$S$2:$S$14</definedName>
+    <definedName name="errorCritera">ReviewEnvironment!$S$2:$S$13</definedName>
     <definedName name="errorCriteria">CriteriaDefinitions!$B$49:$B$56</definedName>
     <definedName name="Fluency">CriteriaDefinitions!$D$49:$D$55</definedName>
     <definedName name="language">CriteriaDefinitions!$E$49:$E$52</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="484">
   <si>
     <t>Error Typology Benchmark</t>
   </si>
@@ -1486,50 +1486,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">هنر همچون </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>جامی</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> است، که یا از آن آبی </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>گوارا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> می‌نوشیم، یا از آن آنچه را موجب خشم خداوند می‌شود (یعنی الکل) می‌نوشیم.</t>
-    </r>
-  </si>
-  <si>
-    <t>بعد از به قدرت رسیدن امام خمینی پس از شاه در سال 1357، دولت ایران چگونه با شما تعامل کرد؟</t>
-  </si>
-  <si>
     <t>اگر دولت اسرائیل خواهان این است که مردمش در امتیت به سر ببرد باید به قطعنامه های سازمان ملل متحد پایبند باشد.</t>
   </si>
   <si>
@@ -1557,9 +1513,6 @@
     <t>آنچه قابل توجه است این است که این ضدقهرمان هیچگاه نسبت به افعال شنیعی که مرتکب شد احساس گناه نکرد.</t>
   </si>
   <si>
-    <t>کسی که سیگار می کشد و اصلا ورزش نمی کند در عرض یک ربع خسته می شود</t>
-  </si>
-  <si>
     <t>او گفت که استان برای این مناسبت به خوبی تدارک دیده است.</t>
   </si>
   <si>
@@ -1581,9 +1534,6 @@
     <t>آیا تو کمونیست هستی دوست من؟</t>
   </si>
   <si>
-    <t xml:space="preserve">آن در سال 1980 م بود وقتی از پایتخت ایتالیا دیدن می‌کردم. </t>
-  </si>
-  <si>
     <t>این استقبال خصمانه در قلب او احساس تنگی به جای گذاشته بود.</t>
   </si>
   <si>
@@ -1593,9 +1543,6 @@
     <t>از من خواست که هر چیزی همراهم هست را بیرون بیاورم و بر روی میز جلویش بگذارم.</t>
   </si>
   <si>
-    <t>در حقیقت او دختر عمه ام است که در هنگام درس خواندم پیش او به سر می‌بردم.</t>
-  </si>
-  <si>
     <t>اولین چیزی که متوجه می‎شویم افزایش درصد مردها نسبت به زنها است.</t>
   </si>
   <si>
@@ -1614,12 +1561,6 @@
     <t>وی را از خروج از منزل یا هر گونه برقراری ارتباط با مردم منع کرد.</t>
   </si>
   <si>
-    <t>نخست وزیر نوری المالکی دیروز سه شنبه بعد از رسیدنش به آمریکا با رئیس جمهور آمریکا جورج بوش در کاخ سفید دیدار کرد.</t>
-  </si>
-  <si>
-    <t>کار خود به عنوان یک خبرنگار روزنامه در زمان جنگ را چگونه توصیف می‌کنید؟</t>
-  </si>
-  <si>
     <t>من راهنمایی هیچ دانشجویی را نمی‌پذیرم، مگر اینکه تا حدی با طرز تفکر او آشنا شوم.</t>
   </si>
   <si>
@@ -1762,50 +1703,6 @@
   </si>
   <si>
     <t>كيف تعاملت الحكومة الإيرانية معكم بعد وصول الإمام الخميني للحكم خلفا للشاه في 1979؟</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">بعد از به قدرت رسیدن امام خمینی </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>پس از شاه</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> در سال 1357، دولت ایران چگونه با شما تعامل کرد؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">بعد از به قدرت رسیدن امام خمینی پس از شاه در سال </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1357</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>، دولت ایران چگونه با شما تعامل کرد؟</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1854,18 +1751,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>دولت ایران پس از به قدرت رسیدن امام خمینی (ره) به عنوان جانشین شاه در سال ۱۹۷۹ چگونه با شما برخورد کرد</t>
+    <t>اگر دولت اسرائیل می ‌ خواهد مردمش در امنیت زندگی کنند، باید به قطعنامه ‌ های سازمان ملل پایبند باشد.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او نمی ‌ داند که آنچه می ‌ خواند </t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>یک عقیده است یا یک داستان</t>
     </r>
     <r>
       <rPr>
@@ -1874,15 +1773,675 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>؟</t>
-    </r>
-  </si>
-  <si>
-    <t>اگر دولت اسرائیل می ‌ خواهد مردمش در امنیت زندگی کنند، باید به قطعنامه ‌ های سازمان ملل پایبند باشد.</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">حمد و سپاس از آن خداست </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>که او را حمد می ‌ گوییم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> و از او یاری و آمرزش می ‌ خواهیم.</t>
+    </r>
+  </si>
+  <si>
+    <t>این می تواند منجر به درگیری همه جانبه شود.</t>
+  </si>
+  <si>
+    <t>ممکن است این به یک درگیری همه جانبه منجر شود.</t>
+  </si>
+  <si>
+    <r>
+      <t>بولتن ‌ های جدیدی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> برای شما </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>صادر نشده است ؛ دلیل این کمبود رسانه ‌ ای چیست ؟</t>
+    </r>
+  </si>
+  <si>
+    <t>باید بگویم که من موضوعات کتاب ‌ هایم را انتخاب نمی ‌ کنم، بلکه آنها من را انتخاب می ‌ کنند.</t>
+  </si>
+  <si>
+    <t>او نزد آنها رفت و تا زمانی که آنها به خواب رفتند با آنها ماند.</t>
+  </si>
+  <si>
+    <t>نزد ایشان رفت و با ایشان ماند تا خوابیدند.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او به جای جراحی عمومی که </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>در خواب دیده بود</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>، به دپارتمان هیستولوژی منصوب شد.</t>
+    </r>
+  </si>
+  <si>
+    <t>او در مورد هر چیزی که می ‌ دانست صحبت نمی ‌ کرد.</t>
+  </si>
+  <si>
+    <t>من هیچ کار نامناسبی انجام ندادم… او کسی است که بدون قرار ملاقات بر سر ما فرود آمد.</t>
+  </si>
+  <si>
+    <r>
+      <t>پیام نرسید، پس دلیل آن را پرسیدم و دریافتم که پستچیان آن را به</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ولایت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> فرستادند و نه به شهر.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تنها آن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>چمدان</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> باقی مانده است که ممکن است گواهی بر عبور او از اینجا باشد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لطفا به من کمک کنید، من نمی توانم تحمل کنم که </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>چه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> اتفاقی افتاده است و </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>چه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> اتفاقی خواهد افتاد.</t>
+    </r>
+  </si>
+  <si>
+    <t>آنچه قابل توجه است این است که این قهرمان منفی هرگز احساس پشیمانی از اعمال شنیع خود را.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او گفت که </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>فرمانداری</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> به خوبی برای این مناسبت آماده شده است.</t>
+    </r>
+  </si>
+  <si>
+    <t>لم يعد واضحا ما إذا كان حل الدولتين للصراع الإسرائيلي الفلسطيني مازال ممكنا.</t>
+  </si>
+  <si>
+    <t>أتوقع أنني ألقاك ما دمت رئيسا للوزراء، تماما كما حصل مع سلفك.</t>
+  </si>
+  <si>
+    <t>أحس بأني عرفتك من قبل في أزمان قديمة، وإلا كيف تفسرين هذا الانجذاب بيننا منذ اللحظة الأولى؟</t>
+  </si>
+  <si>
+    <t>أنا مجرد مساعد وأنت جراح كبير.</t>
+  </si>
+  <si>
+    <t>رأيت الكثير في حياتي وسمعت أمورا كثيرة ولكني لم أهتم بالتفاصيل.</t>
+  </si>
+  <si>
+    <t>هؤلاء يكذبون ويقولون إننا شعب واحد.</t>
+  </si>
+  <si>
+    <t>كان يجب أن أصل قبل حلول الظلام لأنني إن تأخرت فسأضل الطريق.</t>
+  </si>
+  <si>
+    <t>هو في الأربعين لكنه في صورة ابن العشرين.</t>
+  </si>
+  <si>
+    <t>لو استطعت أن أوظفكم جميعا عندي لفعلت، ولكن ذلك ليس في وسعي.</t>
+  </si>
+  <si>
+    <t>هل هناك نية لضم لاعبين جدد لفريق النجف؟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بسم الله الرحمن الرحیم بگو </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>و باز کنید</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">شاید می خواستم مانعی </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بین من و تو</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> قرار دهم</t>
+    </r>
+  </si>
+  <si>
+    <t>او می داند که پسر دزدی می کند.</t>
+  </si>
+  <si>
+    <t>سی سال بعد او متوجه شد که با مهاجرت به آمریکا مرتکب اشتباه شده است.</t>
+  </si>
+  <si>
+    <t>کمونیست هستی دوست من ؟</t>
+  </si>
+  <si>
+    <t>سال 1980 بود که به پایتخت ایتالیا سفر کردم.</t>
+  </si>
+  <si>
+    <t>شما باید به عقیده دیگر احترام بگذارید، حتی اگر مخالف یا حتی در تضاد با اعتقاد ما باشد.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">آن استقبال خصمانه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بر خود چنگ انداخته بود.</t>
+    </r>
+  </si>
+  <si>
+    <t>از من خواست همه وسایلم را بیرون بیاورم و روی میز جلوی او بگذارم.</t>
+  </si>
+  <si>
+    <t>او در واقع پسرعموی من است که من در روزهای مدرسه با او بودم.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او در واقع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>پسرعموی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> من است که من در روزهای مدرسه با او بودم.</t>
+    </r>
+  </si>
+  <si>
+    <t>اولین چیزی که متوجه می شویم این است که درصد نرها نسبت به ماده ها در حال افزایش است.</t>
+  </si>
+  <si>
+    <t>العربی شترش را که هیچ کس دیگری ندارد ذبح کرد و با قدردانی و احترام به میهمانش غذا داد.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او دیوانه است و هرگز مناسب نیست، و اگر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>او با او</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ازدواج کند، خانه آنها به یک میدان جنگ تبدیل خواهد شد.</t>
+    </r>
+  </si>
+  <si>
+    <t>او خود را در میان ده ‌ ها قربانی حیرت ‌ زده ایستاده یافت.</t>
+  </si>
+  <si>
+    <t>آنها اصالتا عرب نیستند، بلکه صدها سال پیش در این کشور ساکن شده اند.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او را از بیرون رفتن از خانه یا برقراری ارتباط با مردم منع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>کنید</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>نوری المالکی نخست وزیر روز سه شنبه در کاخ سفید با جورج دبلیو بوش رئیس جمهور آمریکا دیدار کرد.</t>
+  </si>
+  <si>
+    <t>کارتان را به عنوان خبرنگار دوران جنگ چگونه توصیف می ‌ کنید ؟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نظارت هیچ دانش آموزی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> را نمی پذیرم تا زمانی که تا حدودی طرز تفکر او را ندانم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او به دلیل رنگ پوست </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">قهوه ‌ ای </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>و خاستگاه عربی ‌ اش از دسترسی به برخی باشگاه ‌ ها محروم شد.</t>
+    </r>
+  </si>
+  <si>
+    <t>دیگر معلوم نیست آیا چاره دو کشوری برای درگیری اسرائیل و فلسطین هنوز ممکن است یا نه.</t>
+  </si>
+  <si>
+    <t>دیگر مشخص نیست که آیا راه حل دو کشوری برای مناقشه اسرائیل و فلسطین هنوز امکان پذیر است یا خیر.</t>
+  </si>
+  <si>
+    <t>من انتظار دارم شما را تا زمانی که نخست وزیر هستید ملاقات کنم، درست مثل سلف شما.</t>
+  </si>
+  <si>
+    <t>احساس می‌کنم پیش‌تر در زمان‌های قدیم شما را شناخته‌ام، و الا این حس جاذبه بینمان از همان لحظه آغاز را  چگونه توجیه می‌کنید؟</t>
+  </si>
+  <si>
+    <t>من احساس می کنم که شما را قبلا در زمان های قدیم شناخته ام، در غیر این صورت چگونه این جذابیت بین ما را از لحظه اول توضیح می دهید ؟</t>
+  </si>
+  <si>
+    <t>من تنها یک دستیار هستم و شما یک جراح بزرگ.</t>
+  </si>
+  <si>
+    <t>من فقط یک دستیار هستم و شما یک جراح بزرگ هستید.</t>
+  </si>
+  <si>
+    <t>من در زندگی‌ام چیزهای زیادی دیده و شنیده‌ام اما به جزئیات اهمیتی نداده‌ام.</t>
+  </si>
+  <si>
+    <t>من چیزهای زیادی در زندگی ‌ ام دیدم و چیزهای زیادی شنیدم اما به جزئیات اهمیت نمی ‌ دادم.</t>
+  </si>
+  <si>
+    <t>به دروغ می گویند ما ملتی واحد هستیم.</t>
+  </si>
+  <si>
+    <t>باید قبل از تاریک شدن هوا می‌رسیدم چون اگر دیر می‌کردم گم می‌شدم.</t>
+  </si>
+  <si>
+    <t>او چهل سال دارد، اما ظاهرش به بیست ساله شبیه است.</t>
+  </si>
+  <si>
+    <t>اگر می‌توانستم همه شما را  پیش خودم استخدام کنم، حتما این کار را می‎کردم، اما این از توان من خارج است.</t>
+  </si>
+  <si>
+    <t>آیا تصمیمی مبنی بر جذب بازیکنان جدید در تیم نجف وجود دارد؟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اگر می ‌ توانستم همه شما را استخدام کنم، این کار را می ‌ کردم، اما </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نمی ‌ توانستم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>آیا قصدی برای اضافه کردن بازیکنان جدید به تیم نجف وجود دارد ؟</t>
+  </si>
+  <si>
+    <t>کسی که سیگار می کشه و ورزش نمی کنه در عرض یه ربع خسته می‌شه</t>
+  </si>
+  <si>
+    <t>حاج محمود از شدت خبر به زمین افتاد.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هنر همچون </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>جامی است، که یا از آن آبی گوارا می‌نوشیم، یا از آن آنچه را موجب خشم خداوند می‌شود (یعنی الکل) می‌نوشیم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بعد از به قدرت رسیدن امام خمینی </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>پس از شاه در سال 1357، دولت ایران چگونه با شما تعامل کرد؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بعد از به قدرت رسیدن امام خمینی پس از شاه در سال </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1357، دولت ایران چگونه با شما تعامل کرد؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">گردشگران از کشورهای مختلف جهان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>پیش ما می‌آیند، اما بیشترین درصد آنها از اروپا می‌آیند.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">آیا تو همان زنی نبودی که زندگی‌ام را </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>واژگون کرد؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او نمی داند آیا چیزی که می‌خواند </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>یک مقاله حاوی نظر شخصی است یا یک خبر.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هیچ بولتن جدیدی </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>درباره شما پخش نشده است، دلیل این کمکاری رسانه‌ای چیست؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او به جای جراحی عمومی که </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آرزویش را داشت در بخش بافت شناسی منصوب شد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">آغوش </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>علنی در روستا ممکن است بین پدر و پسر یا بین دو مرد باشد، اما هیچ گاه بین پدر و دخترش نیست.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هیچ چیزی جز آن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>کیف نمانده که احتمالا نشان دهنده عبور وی از اینجاست.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">از شما خواهش می کنم که من را کمک کنید چون تاب تحمل </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آنچه اتفاق افتاد و خواهد افتاد را ندارم.</t>
+    </r>
   </si>
   <si>
     <r>
       <t>حاج محمود</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> به دلیل تأثیر  شدید خبر </t>
     </r>
     <r>
       <rPr>
@@ -1891,12 +2450,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> به دلیل تأثیر  شدید خبر بر وی</t>
+      <t>بر وی</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1905,7 +2463,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">حاج محمود </t>
+      <t>آیا این بدان معناست که شما از موضع سوریه حمایت خواهید ک</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>رد ؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">گردشگران از کشورهای مختلف جهان </t>
     </r>
     <r>
       <rPr>
@@ -1914,54 +2485,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>از شدت خبر</t>
+      <t xml:space="preserve">به </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> به زمین افتاد.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>آیا این بدان معناست که شما از موضع سوریه حمایت خواهید کرد</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">گردشگران از کشورهای مختلف جهان </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>به ما</t>
+      <t>ما</t>
     </r>
     <r>
       <rPr>
@@ -1975,16 +2507,119 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">گردشگران از کشورهای مختلف جهان </t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">پیش ما </t>
+      <t>مگر تو آن زنی نبودی که زندگیم را زیر و روکرد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">مگر تو آن زنی نبودی که زندگیم را زیر و </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>روکردی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">او به جای جراحی عمومی که در خواب دیده بود، به دپارتمان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>هیستولوژی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> منصوب شد.</t>
+    </r>
+  </si>
+  <si>
+    <t>نامه نرسید، سبب را جویا شدم، دیدم پستچی‌ها به جای ارسال آن به  شهر آن را به استان ارسال کرده بودند.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">مأموریت این </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آسایشگاه کمک به بیمارانی است که امیدی به بهبودی‌شان نیست.</t>
+    </r>
+  </si>
+  <si>
+    <t>ماموریت این آسایشگاه کمک به بیماران لاعلاج است.</t>
+  </si>
+  <si>
+    <t>بغل کردن عموم در مناره ممکن است بین پدر و پسرش یا بین مرد و مرد باشد اما هرگز بین پدر و دخترش نباشد.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">طی دو روز گذشته، فرمانداری </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آجلون</t>
     </r>
     <r>
       <rPr>
@@ -1993,12 +2628,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>می‌آیند، اما بیشترین درصد آنها از اروپا می‌آیند.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">مگر تو آن زنی نبودی که زندگیم را </t>
+      <t xml:space="preserve"> شاهد بارش شدید باران بوده است.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">طی دو روز گذشته، </t>
     </r>
     <r>
       <rPr>
@@ -2007,7 +2648,30 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>زیر و روکرد</t>
+      <t>فرمانداری</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> آجلون شاهد بارش شدید باران بوده است.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">کسی که سیگار می ‌ کشد و </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>اصلا</t>
     </r>
     <r>
       <rPr>
@@ -2016,35 +2680,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ی ؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">آیا تو همان زنی نبودی که زندگی‌ام را </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>واژگون کرد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">او نمی ‌ داند که آنچه می ‌ خواند </t>
+      <t xml:space="preserve"> ورزش نمی ‌ کند، در ربع ساعت بازی می ‌ کند.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">کسی که سیگار می ‌ کشد و اصلا ورزش نمی ‌ کند، در ربع ساعت </t>
     </r>
     <r>
       <rPr>
@@ -2053,7 +2694,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>یک عقیده است یا یک داستان</t>
+      <t>بازی می ‌ کند</t>
     </r>
     <r>
       <rPr>
@@ -2067,16 +2708,52 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">او نمی داند آیا چیزی که می‌خواند </t>
+      <t xml:space="preserve">کسی که سیگار می ‌ </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>یک مقاله حاوی نظر شخصی است یا یک خبر</t>
+      <t>کشد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> و اصلا ورزش نمی ‌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">، در ربع ساعت بازی می ‌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>کند</t>
     </r>
     <r>
       <rPr>
@@ -2090,7 +2767,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">حمد و سپاس از آن خداست </t>
+      <t xml:space="preserve">استعمارگران توانستند هر تعداد </t>
     </r>
     <r>
       <rPr>
@@ -2099,7 +2776,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>که او را حمد می ‌ گوییم</t>
+      <t>هندی</t>
     </r>
     <r>
       <rPr>
@@ -2108,18 +2785,178 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> و از او یاری و آمرزش می ‌ خواهیم.</t>
-    </r>
-  </si>
-  <si>
-    <t>این می تواند منجر به درگیری همه جانبه شود.</t>
-  </si>
-  <si>
-    <t>ممکن است این به یک درگیری همه جانبه منجر شود.</t>
-  </si>
-  <si>
-    <r>
-      <t>بولتن ‌ های جدیدی</t>
+      <t xml:space="preserve"> که می ‌ خواستند را بدون کوچک ‌ ترین سایه ‌ ای از پشیمانی یا گناه بکشند.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> در سال 1980 م بود وقتی از پایتخت ایتالیا دیدن می‌کردم. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">در حقیقت او دختر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>آن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> عمویم است </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>که</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> در دوران درس خواندم نزد او به سر می‌بردم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">نخست وزیر نوری المالکی دیروز سه شنبه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بعد از رسیدنش به آمریکا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> با رئیس جمهور آمریکا جورج بوش در کاخ سفید دیدار کرد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">کار خود به عنوان یک خبرنگار </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>روزنامه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> در زمان جنگ را چگونه توصیف می‌کنید؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>انتظار دارم که در زمان نخست وزیری شما ملاقاتی</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> با شما </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">داشته باشم، همانطور که </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>در مورد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> سلف شما </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>این اتفاق افتاد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">دروغ می ‌ گویند و می ‌ گویند ما </t>
     </r>
     <r>
       <rPr>
@@ -2128,7 +2965,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> برای شما </t>
+      <t>یک</t>
     </r>
     <r>
       <rPr>
@@ -2137,44 +2974,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>صادر نشده است ؛ دلیل این کمبود رسانه ‌ ای چیست ؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">هیچ بولتن جدیدی </t>
-    </r>
+      <t xml:space="preserve"> ملت هستیم.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>درباره شما</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> پخش نشده است، دلیل این کمکاری رسانه‌ای چیست؟</t>
-    </r>
-  </si>
-  <si>
-    <t>باید بگویم که من موضوعات کتاب ‌ هایم را انتخاب نمی ‌ کنم، بلکه آنها من را انتخاب می ‌ کنند.</t>
-  </si>
-  <si>
-    <t>او نزد آنها رفت و تا زمانی که آنها به خواب رفتند با آنها ماند.</t>
-  </si>
-  <si>
-    <t>نزد ایشان رفت و با ایشان ماند تا خوابیدند.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">او به جای جراحی عمومی که </t>
+      <t>باید قبل از تاریکی می ‌ رسیدم چون اگر دیر</t>
     </r>
     <r>
       <rPr>
@@ -2183,50 +2993,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>در خواب دیده بود</t>
+      <t xml:space="preserve"> می ‌ رسیدم</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>، به دپارتمان هیستولوژی منصوب شد.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">او به جای جراحی عمومی که </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>آرزویش را داشت</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> در بخش بافت شناسی منصوب شد.</t>
-    </r>
-  </si>
-  <si>
-    <t>او در مورد هر چیزی که می ‌ دانست صحبت نمی ‌ کرد.</t>
-  </si>
-  <si>
-    <t>من هیچ کار نامناسبی انجام ندادم… او کسی است که بدون قرار ملاقات بر سر ما فرود آمد.</t>
-  </si>
-  <si>
-    <r>
-      <t>پیام نرسید، پس دلیل آن را پرسیدم و دریافتم که پستچیان آن را به</t>
+      <t xml:space="preserve"> گم می ‌ شدم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">او در چهل سالگی است، </t>
     </r>
     <r>
       <rPr>
@@ -2235,145 +3015,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ولایت</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> فرستادند و نه به شهر.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">نامه نرسید، سبب را جویا شدم، دیدم پستچی‌ها به جای ارسال آن به (ساختمان) شهر آن را به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ساختمان) استان</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ارسال کرده بودند.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ماموریت این </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>آسایشگاه</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> کمک به بیماران لاعلاج است.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">مأموریت این </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>کلینیک</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> کمک به بیمارانی است که امیدی به بهبودی‌شان نیست.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">آغوش </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>علنی</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> در روستا ممکن است بین پدر و پسر یا بین دو مرد باشد، اما هیچ گاه بین پدر و دخترش نیست.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">آغوش علنی در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>روستا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ممکن است بین پدر و پسر یا بین دو مرد باشد، اما هیچ گاه بین پدر و دخترش نیست.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">آغوش علنی در روستا ممکن است بین پدر و پسر یا بین دو مرد باشد، اما هیچ گاه بین پدر و دخترش </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>نیست</t>
+      <t>اما در بیست سالگی است</t>
     </r>
     <r>
       <rPr>
@@ -2385,226 +3027,12 @@
       <t>.</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">بغل کردن </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>عموم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> در مناره ممکن است بین پدر و پسرش یا بین مرد و مرد باشد اما هرگز بین پدر و دخترش نباشد.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">بغل کردن عموم در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>مناره</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ممکن است بین پدر و پسرش یا بین مرد و مرد باشد اما هرگز بین پدر و دخترش نباشد.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">بغل کردن عموم در مناره ممکن است بین پدر و پسرش یا بین مرد و مرد باشد اما هرگز بین پدر و دخترش </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>نباشد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">تنها آن </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>چمدان</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> باقی مانده است که ممکن است گواهی بر عبور او از اینجا باشد.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">هیچ چیزی جز آن </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>کیف</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نمانده که احتمالا نشان دهنده عبور وی از اینجاست.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">از شما خواهش می کنم که من را کمک کنید چون تاب تحمل </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>آنچه</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> اتفاق افتاد و خواهد افتاد را ندارم.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">لطفا به من کمک کنید، من نمی توانم تحمل کنم که </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>چه</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> اتفاقی افتاده است و </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>چه</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> اتفاقی خواهد افتاد.</t>
-    </r>
-  </si>
-  <si>
-    <t>طی دو روز گذشته، فرمانداری آجلون شاهد بارش شدید باران بوده است.</t>
-  </si>
-  <si>
-    <t>آنچه قابل توجه است این است که این قهرمان منفی هرگز احساس پشیمانی از اعمال شنیع خود را.</t>
-  </si>
-  <si>
-    <t>کسی که سیگار می ‌ کشد و اصلا ورزش نمی ‌ کند، در ربع ساعت بازی می ‌ کند.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">او گفت که </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>فرمانداری</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> به خوبی برای این مناسبت آماده شده است.</t>
-    </r>
-  </si>
-  <si>
-    <t>استعمارگران توانستند هر تعداد هندی که می ‌ خواستند را بدون کوچک ‌ ترین سایه ‌ ای از پشیمانی یا گناه بکشند.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2876,9 +3304,26 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3847,7 +4292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4151,17 +4596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4352,6 +4791,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4755,29 +5209,29 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5435,10 +5889,10 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="197"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="115"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
@@ -5456,10 +5910,10 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="197"/>
+      <c r="B3" s="195"/>
       <c r="C3" s="115"/>
       <c r="D3" s="1"/>
       <c r="E3" s="12" t="s">
@@ -5477,18 +5931,18 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="194" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="197"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="115"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="203" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
       <c r="J4" s="16"/>
       <c r="K4" s="156"/>
       <c r="L4" s="1"/>
@@ -5497,10 +5951,10 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="197"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="115"/>
       <c r="D5" s="97"/>
       <c r="E5" s="155" t="s">
@@ -5799,11 +6253,11 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5841,16 +6295,16 @@
       <c r="C22" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="199" t="s">
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="199"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5866,14 +6320,14 @@
       <c r="C23" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="202" t="s">
+      <c r="D23" s="200" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="208"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="206"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5889,14 +6343,14 @@
       <c r="C24" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="204" t="s">
+      <c r="D24" s="202" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="194"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="190"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5913,9 +6367,9 @@
         <v>248</v>
       </c>
       <c r="F25" s="108"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="192"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="190"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5932,9 +6386,9 @@
         <v>249</v>
       </c>
       <c r="F26" s="108"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="192"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="190"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -5951,9 +6405,9 @@
         <v>250</v>
       </c>
       <c r="F27" s="108"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="192"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="190"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5970,9 +6424,9 @@
         <v>251</v>
       </c>
       <c r="F28" s="108"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="192"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="190"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5989,9 +6443,9 @@
         <v>252</v>
       </c>
       <c r="F29" s="108"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="192"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="190"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -6008,9 +6462,9 @@
         <v>253</v>
       </c>
       <c r="F30" s="108"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="192"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="190"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6027,9 +6481,9 @@
         <v>254</v>
       </c>
       <c r="F31" s="108"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="191"/>
-      <c r="I31" s="192"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="190"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6046,9 +6500,9 @@
         <v>255</v>
       </c>
       <c r="F32" s="108"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="190"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6065,9 +6519,9 @@
         <v>256</v>
       </c>
       <c r="F33" s="108"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="190"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6084,9 +6538,9 @@
         <v>257</v>
       </c>
       <c r="F34" s="108"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6103,9 +6557,9 @@
         <v>258</v>
       </c>
       <c r="F35" s="108"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="192"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="190"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6122,9 +6576,9 @@
         <v>259</v>
       </c>
       <c r="F36" s="108"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="192"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="190"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6141,9 +6595,9 @@
         <v>260</v>
       </c>
       <c r="F37" s="108"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="195"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="193"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6289,10 +6743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC110"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6300,7 +6754,7 @@
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="165" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="244" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
@@ -6316,19 +6770,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
       <c r="L1" s="1"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
@@ -6353,45 +6807,45 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="42" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="170" t="s">
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="171" t="s">
+      <c r="G2" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="171" t="s">
+      <c r="I2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="172" t="s">
+      <c r="J2" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="212" t="s">
+      <c r="M2" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="214"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="212"/>
       <c r="R2" s="13"/>
       <c r="S2" s="111" t="s">
         <v>33</v>
@@ -6408,44 +6862,44 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="173">
+      <c r="A3" s="171">
         <v>1</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="172">
         <v>1</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="173" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="173" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="242" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="176" t="s">
+      <c r="F3" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176" t="s">
+      <c r="H3" s="174"/>
+      <c r="I3" s="174" t="s">
         <v>293</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179" t="str">
-        <f t="shared" ref="K3:K27" si="0">CONCATENATE(F3,I3)</f>
+      <c r="J3" s="176"/>
+      <c r="K3" s="177" t="str">
+        <f t="shared" ref="K3:K28" si="0">CONCATENATE(F3,I3)</f>
         <v>AccuracyNeutral</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="211"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="209"/>
       <c r="R3" s="13"/>
       <c r="S3" s="146" t="s">
         <v>273</v>
@@ -6462,39 +6916,38 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="180">
-        <f t="shared" ref="A4:A72" si="1">A3+1</f>
+      <c r="A4" s="171">
         <v>2</v>
       </c>
-      <c r="B4" s="181">
+      <c r="B4" s="179">
         <v>2</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="180" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="243" t="s">
         <v>302</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="179" t="str">
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="209" t="s">
+      <c r="M4" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="211"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="209"/>
       <c r="R4" s="13"/>
       <c r="S4" s="14" t="s">
         <v>50</v>
@@ -6511,39 +6964,38 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="180">
-        <f t="shared" si="1"/>
+      <c r="A5" s="171">
         <v>3</v>
       </c>
-      <c r="B5" s="181">
+      <c r="B5" s="179">
         <v>3</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="180" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="180" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="182" t="s">
+      <c r="E5" s="243" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="179" t="str">
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="209" t="s">
+      <c r="M5" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="211"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="209"/>
       <c r="R5" s="74"/>
       <c r="S5" s="14" t="s">
         <v>97</v>
@@ -6560,45 +7012,44 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="180">
-        <f t="shared" si="1"/>
+      <c r="A6" s="171">
         <v>4</v>
       </c>
-      <c r="B6" s="181">
+      <c r="B6" s="179">
         <v>4</v>
       </c>
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="182" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="183" t="s">
+      <c r="E6" s="243" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183" t="s">
+      <c r="H6" s="181"/>
+      <c r="I6" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J6" s="184"/>
-      <c r="K6" s="179" t="str">
+      <c r="J6" s="182"/>
+      <c r="K6" s="177" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="209" t="s">
+      <c r="M6" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="211"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="209"/>
       <c r="R6" s="1"/>
       <c r="S6" s="146" t="s">
         <v>275</v>
@@ -6615,43 +7066,42 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="180">
-        <f t="shared" si="1"/>
+      <c r="A7" s="171">
         <v>5</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="179">
         <v>5</v>
       </c>
-      <c r="C7" s="182" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="182" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="185" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="183" t="s">
+      <c r="C7" s="180" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="243" t="s">
+        <v>450</v>
+      </c>
+      <c r="F7" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="179" t="str">
+      <c r="H7" s="181"/>
+      <c r="I7" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J7" s="182"/>
+      <c r="K7" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="211"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="209"/>
       <c r="R7" s="74"/>
       <c r="S7" s="146" t="s">
         <v>276</v>
@@ -6668,27 +7118,29 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181">
+      <c r="A8" s="171">
+        <v>6</v>
+      </c>
+      <c r="B8" s="179">
         <v>5</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" s="185" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="183" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="243" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183" t="s">
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="184"/>
-      <c r="K8" s="179"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="177"/>
       <c r="L8" s="1"/>
       <c r="M8" s="164"/>
       <c r="N8" s="162"/>
@@ -6709,37 +7161,42 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181">
-        <v>5</v>
-      </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" s="185" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="183" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="184"/>
-      <c r="K9" s="179"/>
+      <c r="A9" s="171">
+        <v>7</v>
+      </c>
+      <c r="B9" s="179">
+        <v>6</v>
+      </c>
+      <c r="C9" s="180" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="243" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="177" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="163"/>
+      <c r="M9" s="207" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="208"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="209"/>
       <c r="R9" s="74"/>
-      <c r="S9" s="146"/>
+      <c r="S9" s="146" t="s">
+        <v>277</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -6751,43 +7208,46 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="180">
-        <f>A7+1</f>
-        <v>6</v>
-      </c>
-      <c r="B10" s="181">
-        <v>6</v>
-      </c>
-      <c r="C10" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="182" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="179" t="str">
+    <row r="10" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="171">
+        <v>8</v>
+      </c>
+      <c r="B10" s="179">
+        <v>7</v>
+      </c>
+      <c r="C10" s="180" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="243" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="182"/>
+      <c r="K10" s="177" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="146" t="s">
-        <v>277</v>
+      <c r="M10" s="216"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="147" t="s">
+        <v>109</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -6801,47 +7261,40 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="180">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="181">
-        <v>7</v>
-      </c>
-      <c r="C11" s="182" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="182" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>394</v>
-      </c>
-      <c r="F11" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="183" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J11" s="184"/>
-      <c r="K11" s="179" t="str">
+      <c r="A11" s="171">
+        <v>9</v>
+      </c>
+      <c r="B11" s="179">
+        <v>8</v>
+      </c>
+      <c r="C11" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="180" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="243" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
+        <v/>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="147" t="s">
-        <v>109</v>
-      </c>
+      <c r="M11" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="208"/>
+      <c r="O11" s="208"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -6853,46 +7306,43 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="180">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="181">
-        <v>8</v>
-      </c>
-      <c r="C12" s="182" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="182" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="182" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="183" t="s">
+    <row r="12" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="171">
+        <v>10</v>
+      </c>
+      <c r="B12" s="179">
+        <v>9</v>
+      </c>
+      <c r="C12" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="180" t="s">
+        <v>462</v>
+      </c>
+      <c r="E12" s="243" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="183" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="179" t="str">
+      <c r="G12" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="182"/>
+      <c r="K12" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>FluencyNeutral</v>
+        <v>FluencyMinor</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="211"/>
+      <c r="M12" s="216"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="208"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="209"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
       <c r="T12" s="1"/>
@@ -6906,45 +7356,46 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="180">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="181">
-        <v>9</v>
-      </c>
-      <c r="C13" s="182" t="s">
-        <v>344</v>
-      </c>
-      <c r="D13" s="182" t="s">
-        <v>397</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="183" t="s">
+    <row r="13" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="171">
+        <v>11</v>
+      </c>
+      <c r="B13" s="179">
+        <v>10</v>
+      </c>
+      <c r="C13" s="180" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="180" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" s="243" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="183" t="s">
+      <c r="G13" s="181" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J13" s="184"/>
-      <c r="K13" s="179" t="str">
+      <c r="H13" s="181"/>
+      <c r="I13" s="181" t="s">
+        <v>293</v>
+      </c>
+      <c r="J13" s="182"/>
+      <c r="K13" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>FluencyMinor</v>
+        <v>FluencyNeutral</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="210"/>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="13"/>
+      <c r="M13" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="208"/>
+      <c r="O13" s="208"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="74"/>
       <c r="S13" s="16"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -6958,45 +7409,33 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="180">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="181">
-        <v>10</v>
-      </c>
-      <c r="C14" s="182" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="182" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="182" t="s">
-        <v>400</v>
-      </c>
-      <c r="F14" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183" t="s">
+      <c r="A14" s="171">
+        <v>12</v>
+      </c>
+      <c r="B14" s="179"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="243"/>
+      <c r="F14" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="181" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="184"/>
-      <c r="K14" s="179" t="str">
-        <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
+      <c r="J14" s="182"/>
+      <c r="K14" s="177"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="210"/>
-      <c r="Q14" s="211"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="209"/>
       <c r="R14" s="74"/>
       <c r="S14" s="16"/>
       <c r="T14" s="1"/>
@@ -7011,43 +7450,42 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="180">
-        <f t="shared" si="1"/>
+      <c r="A15" s="171">
+        <v>13</v>
+      </c>
+      <c r="B15" s="179">
         <v>11</v>
       </c>
-      <c r="B15" s="181">
-        <v>11</v>
-      </c>
-      <c r="C15" s="182" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="182" t="s">
-        <v>401</v>
-      </c>
-      <c r="E15" s="182" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" s="183" t="s">
+      <c r="C15" s="180" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="180" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="243" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="183" t="s">
+      <c r="G15" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183" t="s">
+      <c r="H15" s="181"/>
+      <c r="I15" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="J15" s="184"/>
-      <c r="K15" s="179" t="str">
+      <c r="J15" s="182"/>
+      <c r="K15" s="177" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="216"/>
-      <c r="O15" s="216"/>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="217"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="215"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7062,34 +7500,33 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="180">
-        <f t="shared" si="1"/>
+      <c r="A16" s="171">
+        <v>14</v>
+      </c>
+      <c r="B16" s="179">
         <v>12</v>
       </c>
-      <c r="B16" s="181">
-        <v>12</v>
-      </c>
-      <c r="C16" s="182" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="182" t="s">
-        <v>403</v>
-      </c>
-      <c r="E16" s="182" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" s="183" t="s">
+      <c r="C16" s="180" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="180" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="243" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="183" t="s">
+      <c r="G16" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183" t="s">
+      <c r="H16" s="181"/>
+      <c r="I16" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J16" s="184"/>
-      <c r="K16" s="179" t="str">
+      <c r="J16" s="182"/>
+      <c r="K16" s="177" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
@@ -7113,28 +7550,27 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="180">
-        <f t="shared" si="1"/>
+      <c r="A17" s="171">
+        <v>15</v>
+      </c>
+      <c r="B17" s="179">
         <v>13</v>
       </c>
-      <c r="B17" s="181">
-        <v>13</v>
-      </c>
-      <c r="C17" s="182" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="E17" s="182" t="s">
-        <v>405</v>
-      </c>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="179" t="str">
+      <c r="C17" s="180" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="243" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7158,34 +7594,33 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="180">
-        <f t="shared" si="1"/>
+      <c r="A18" s="171">
+        <v>16</v>
+      </c>
+      <c r="B18" s="179">
         <v>14</v>
       </c>
-      <c r="B18" s="181">
-        <v>14</v>
-      </c>
-      <c r="C18" s="182" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="182" t="s">
-        <v>406</v>
-      </c>
-      <c r="E18" s="182" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" s="183" t="s">
+      <c r="C18" s="180" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="180" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="243" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183" t="s">
+      <c r="H18" s="181"/>
+      <c r="I18" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J18" s="184"/>
-      <c r="K18" s="179" t="str">
+      <c r="J18" s="182"/>
+      <c r="K18" s="177" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
@@ -7209,28 +7644,27 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="180">
-        <f t="shared" si="1"/>
+      <c r="A19" s="171">
+        <v>17</v>
+      </c>
+      <c r="B19" s="179">
         <v>15</v>
       </c>
-      <c r="B19" s="181">
-        <v>15</v>
-      </c>
-      <c r="C19" s="182" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="182" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="182" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="179" t="str">
+      <c r="C19" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="180" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" s="243" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7254,28 +7688,27 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="180">
-        <f t="shared" si="1"/>
+      <c r="A20" s="171">
+        <v>18</v>
+      </c>
+      <c r="B20" s="179">
         <v>16</v>
       </c>
-      <c r="B20" s="181">
-        <v>16</v>
-      </c>
-      <c r="C20" s="182" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="182" t="s">
-        <v>314</v>
-      </c>
-      <c r="E20" s="182" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="179" t="str">
+      <c r="C20" s="180" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="243" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7299,28 +7732,27 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="180">
-        <f t="shared" si="1"/>
+      <c r="A21" s="171">
+        <v>19</v>
+      </c>
+      <c r="B21" s="179">
         <v>17</v>
       </c>
-      <c r="B21" s="181">
-        <v>17</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="182" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="182" t="s">
-        <v>409</v>
-      </c>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="179" t="str">
+      <c r="C21" s="180" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="180" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="243" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="177" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7344,36 +7776,35 @@
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="180">
-        <f t="shared" si="1"/>
+      <c r="A22" s="171">
+        <v>20</v>
+      </c>
+      <c r="B22" s="179">
         <v>18</v>
       </c>
-      <c r="B22" s="181">
-        <v>18</v>
-      </c>
-      <c r="C22" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="182" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" s="182" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" s="183" t="s">
+      <c r="C22" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="243" t="s">
+        <v>456</v>
+      </c>
+      <c r="F22" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J22" s="184"/>
-      <c r="K22" s="179" t="str">
+      <c r="H22" s="181"/>
+      <c r="I22" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J22" s="182"/>
+      <c r="K22" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -7394,36 +7825,26 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="180">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="181">
-        <v>19</v>
-      </c>
-      <c r="C23" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="D23" s="186" t="s">
-        <v>413</v>
-      </c>
-      <c r="E23" s="182" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J23" s="184"/>
-      <c r="K23" s="179" t="str">
-        <f t="shared" si="0"/>
-        <v>FluencyMajor</v>
-      </c>
+    <row r="23" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="171">
+        <v>21</v>
+      </c>
+      <c r="B23" s="179"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="243"/>
+      <c r="F23" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J23" s="182"/>
+      <c r="K23" s="177"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -7443,31 +7864,34 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="180">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="181">
-        <v>20</v>
-      </c>
-      <c r="C24" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="182" t="s">
-        <v>414</v>
-      </c>
-      <c r="E24" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="179" t="str">
+    <row r="24" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="171">
+        <v>22</v>
+      </c>
+      <c r="B24" s="179">
+        <v>19</v>
+      </c>
+      <c r="C24" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="184" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="243" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J24" s="182"/>
+      <c r="K24" s="177" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>FluencyMajor</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7488,37 +7912,30 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="63" x14ac:dyDescent="0.2">
-      <c r="A25" s="180">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="181">
-        <v>21</v>
-      </c>
-      <c r="C25" s="182" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="182" t="s">
-        <v>415</v>
-      </c>
-      <c r="E25" s="182" t="s">
-        <v>416</v>
-      </c>
-      <c r="F25" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J25" s="184"/>
-      <c r="K25" s="179" t="str">
+    <row r="25" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="171">
+        <v>23</v>
+      </c>
+      <c r="B25" s="179">
+        <v>20</v>
+      </c>
+      <c r="C25" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="180" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="243" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
+        <v/>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7539,37 +7956,36 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="180">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="181">
-        <v>22</v>
-      </c>
-      <c r="C26" s="182" t="s">
-        <v>357</v>
-      </c>
-      <c r="D26" s="182" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="182" t="s">
-        <v>418</v>
-      </c>
-      <c r="F26" s="183" t="s">
+    <row r="26" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="171">
+        <v>24</v>
+      </c>
+      <c r="B26" s="179">
+        <v>21</v>
+      </c>
+      <c r="C26" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="180" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="243" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="183" t="s">
+      <c r="G26" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J26" s="184"/>
-      <c r="K26" s="179" t="str">
+      <c r="H26" s="181"/>
+      <c r="I26" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" s="182"/>
+      <c r="K26" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7590,37 +8006,30 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="180">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="181">
-        <v>23</v>
-      </c>
-      <c r="C27" s="182" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27" s="182" t="s">
-        <v>422</v>
-      </c>
-      <c r="E27" s="182" t="s">
-        <v>419</v>
-      </c>
-      <c r="F27" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J27" s="184"/>
-      <c r="K27" s="179" t="str">
+    <row r="27" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="171">
+        <v>25</v>
+      </c>
+      <c r="B27" s="179">
+        <v>22</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="243" t="s">
+        <v>467</v>
+      </c>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="177" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
+        <v/>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7642,29 +8051,34 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181">
+      <c r="A28" s="171">
+        <v>26</v>
+      </c>
+      <c r="B28" s="179">
         <v>23</v>
       </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182" t="s">
-        <v>423</v>
-      </c>
-      <c r="E28" s="182" t="s">
-        <v>420</v>
-      </c>
-      <c r="F28" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J28" s="184"/>
-      <c r="K28" s="179"/>
+      <c r="C28" s="180" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" s="243" t="s">
+        <v>457</v>
+      </c>
+      <c r="F28" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="182"/>
+      <c r="K28" s="177" t="str">
+        <f t="shared" si="0"/>
+        <v>FluencyCritical</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -7684,38 +8098,49 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="180"/>
-      <c r="B29" s="181">
-        <v>23</v>
-      </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182" t="s">
-        <v>424</v>
-      </c>
-      <c r="E29" s="182" t="s">
-        <v>421</v>
-      </c>
-      <c r="F29" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="183" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183" t="s">
+    <row r="29" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="171">
+        <v>27</v>
+      </c>
+      <c r="B29" s="179">
+        <v>24</v>
+      </c>
+      <c r="C29" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="180" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="243" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J29" s="184"/>
-      <c r="K29" s="179"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="177" t="str">
+        <f t="shared" ref="K29:K76" si="1">CONCATENATE(F29,I29)</f>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="M29" s="207" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="208"/>
+      <c r="O29" s="208"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="209"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -7728,48 +8153,47 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="180">
-        <f>A27+1</f>
-        <v>24</v>
-      </c>
-      <c r="B30" s="181">
-        <v>24</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>359</v>
-      </c>
-      <c r="D30" s="182" t="s">
-        <v>425</v>
-      </c>
-      <c r="E30" s="182" t="s">
-        <v>426</v>
-      </c>
-      <c r="F30" s="183" t="s">
+      <c r="A30" s="171">
+        <v>28</v>
+      </c>
+      <c r="B30" s="179">
+        <v>25</v>
+      </c>
+      <c r="C30" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="180" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="243" t="s">
+        <v>459</v>
+      </c>
+      <c r="F30" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="183" t="s">
+      <c r="G30" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183" t="s">
+      <c r="H30" s="181"/>
+      <c r="I30" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="J30" s="184"/>
-      <c r="K30" s="179" t="str">
-        <f t="shared" ref="K30:K74" si="2">CONCATENATE(F30,I30)</f>
+      <c r="J30" s="182"/>
+      <c r="K30" s="177" t="str">
+        <f t="shared" si="1"/>
         <v>AccuracyMinor</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="209" t="s">
-        <v>95</v>
-      </c>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="13"/>
+      <c r="M30" s="207" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="14" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -7782,49 +8206,48 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="180">
+    <row r="31" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="171">
+        <v>29</v>
+      </c>
+      <c r="B31" s="179">
+        <v>26</v>
+      </c>
+      <c r="C31" s="180" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="180" t="s">
+        <v>470</v>
+      </c>
+      <c r="E31" s="243" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="181" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" s="182"/>
+      <c r="K31" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="181">
-        <v>25</v>
-      </c>
-      <c r="C31" s="182" t="s">
-        <v>360</v>
-      </c>
-      <c r="D31" s="182" t="s">
-        <v>428</v>
-      </c>
-      <c r="E31" s="182" t="s">
-        <v>427</v>
-      </c>
-      <c r="F31" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J31" s="184"/>
-      <c r="K31" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v>AccuracyMinor</v>
+        <v>FluencyMajor</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="209" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="14" t="s">
-        <v>97</v>
+      <c r="M31" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="208"/>
+      <c r="O31" s="208"/>
+      <c r="P31" s="208"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="146" t="s">
+        <v>275</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -7838,49 +8261,35 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="180">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="181">
-        <v>26</v>
-      </c>
-      <c r="C32" s="182" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="182" t="s">
-        <v>429</v>
-      </c>
-      <c r="E32" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="183" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J32" s="184"/>
-      <c r="K32" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v>FluencyMinor</v>
-      </c>
+      <c r="A32" s="171">
+        <v>30</v>
+      </c>
+      <c r="B32" s="179"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180" t="s">
+        <v>471</v>
+      </c>
+      <c r="E32" s="243"/>
+      <c r="F32" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="182"/>
+      <c r="K32" s="177"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
-      <c r="P32" s="210"/>
-      <c r="Q32" s="211"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="208"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="209"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="146" t="s">
-        <v>275</v>
-      </c>
+      <c r="S32" s="146"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -7893,41 +8302,40 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="180">
+      <c r="A33" s="171">
+        <v>31</v>
+      </c>
+      <c r="B33" s="179">
+        <v>27</v>
+      </c>
+      <c r="C33" s="180" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="243" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" s="182"/>
+      <c r="K33" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B33" s="181">
-        <v>27</v>
-      </c>
-      <c r="C33" s="182" t="s">
-        <v>362</v>
-      </c>
-      <c r="D33" s="182" t="s">
-        <v>430</v>
-      </c>
-      <c r="E33" s="182" t="s">
-        <v>318</v>
-      </c>
-      <c r="F33" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J33" s="184"/>
-      <c r="K33" s="179" t="str">
-        <f t="shared" si="2"/>
         <v>FluencyMajor</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="211"/>
+      <c r="M33" s="216"/>
+      <c r="N33" s="208"/>
+      <c r="O33" s="208"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="209"/>
       <c r="R33" s="74"/>
       <c r="S33" s="146" t="s">
         <v>276</v>
@@ -7943,46 +8351,45 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="180">
+    <row r="34" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="171">
+        <v>32</v>
+      </c>
+      <c r="B34" s="179">
+        <v>28</v>
+      </c>
+      <c r="C34" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="180" t="s">
+        <v>472</v>
+      </c>
+      <c r="E34" s="243" t="s">
+        <v>447</v>
+      </c>
+      <c r="F34" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" s="182"/>
+      <c r="K34" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B34" s="181">
-        <v>28</v>
-      </c>
-      <c r="C34" s="182" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="182" t="s">
-        <v>431</v>
-      </c>
-      <c r="E34" s="182" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183" t="s">
-        <v>294</v>
-      </c>
-      <c r="J34" s="184"/>
-      <c r="K34" s="179" t="str">
-        <f t="shared" si="2"/>
         <v>AccuracyMinor</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="209" t="s">
+      <c r="M34" s="207" t="s">
         <v>100</v>
       </c>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="211"/>
+      <c r="N34" s="208"/>
+      <c r="O34" s="208"/>
+      <c r="P34" s="208"/>
+      <c r="Q34" s="209"/>
       <c r="R34" s="74"/>
       <c r="S34" s="146" t="s">
         <v>277</v>
@@ -7998,32 +8405,36 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
-      <c r="B35" s="181">
+    <row r="35" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="171">
+        <v>33</v>
+      </c>
+      <c r="B35" s="179">
         <v>28</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="183" t="s">
+      <c r="C35" s="180"/>
+      <c r="D35" s="180" t="s">
+        <v>473</v>
+      </c>
+      <c r="E35" s="243"/>
+      <c r="F35" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="183" t="s">
+      <c r="G35" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183" t="s">
+      <c r="H35" s="181"/>
+      <c r="I35" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="J35" s="184"/>
-      <c r="K35" s="179"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="177"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="211"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="208"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="208"/>
+      <c r="Q35" s="209"/>
       <c r="R35" s="74"/>
       <c r="S35" s="146"/>
       <c r="T35" s="1"/>
@@ -8038,47 +8449,35 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="180">
-        <f>A34+1</f>
-        <v>29</v>
-      </c>
-      <c r="B36" s="181">
-        <v>29</v>
-      </c>
-      <c r="C36" s="182" t="s">
-        <v>364</v>
-      </c>
-      <c r="D36" s="182" t="s">
-        <v>432</v>
-      </c>
-      <c r="E36" s="182" t="s">
-        <v>320</v>
-      </c>
-      <c r="F36" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J36" s="184"/>
-      <c r="K36" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v>AccuracyMajor</v>
-      </c>
+      <c r="A36" s="171">
+        <v>34</v>
+      </c>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36" s="243"/>
+      <c r="F36" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" s="182"/>
+      <c r="K36" s="177"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="210"/>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="147" t="s">
-        <v>109</v>
-      </c>
+      <c r="M36" s="207"/>
+      <c r="N36" s="208"/>
+      <c r="O36" s="208"/>
+      <c r="P36" s="208"/>
+      <c r="Q36" s="209"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="146"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -8090,48 +8489,47 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="180">
+    <row r="37" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="171">
+        <v>35</v>
+      </c>
+      <c r="B37" s="179">
+        <v>29</v>
+      </c>
+      <c r="C37" s="180" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="180" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="243" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" s="182"/>
+      <c r="K37" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B37" s="181">
-        <v>30</v>
-      </c>
-      <c r="C37" s="182" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="182" t="s">
-        <v>433</v>
-      </c>
-      <c r="E37" s="182" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="J37" s="184"/>
-      <c r="K37" s="179" t="str">
-        <f t="shared" si="2"/>
         <v>AccuracyMajor</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="210"/>
-      <c r="O37" s="210"/>
-      <c r="P37" s="210"/>
-      <c r="Q37" s="211"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="16"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="208"/>
+      <c r="O37" s="208"/>
+      <c r="P37" s="208"/>
+      <c r="Q37" s="209"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="147" t="s">
+        <v>109</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -8143,34 +8541,45 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="180">
+    <row r="38" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="171">
+        <v>36</v>
+      </c>
+      <c r="B38" s="179">
+        <v>30</v>
+      </c>
+      <c r="C38" s="180" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="180" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" s="243" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" s="182"/>
+      <c r="K38" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="182" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="218"/>
-      <c r="N38" s="210"/>
-      <c r="O38" s="210"/>
-      <c r="P38" s="210"/>
-      <c r="Q38" s="211"/>
+      <c r="M38" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38" s="208"/>
+      <c r="O38" s="208"/>
+      <c r="P38" s="208"/>
+      <c r="Q38" s="209"/>
       <c r="R38" s="13"/>
       <c r="S38" s="16"/>
       <c r="T38" s="1"/>
@@ -8185,36 +8594,43 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="180">
+      <c r="A39" s="171">
+        <v>37</v>
+      </c>
+      <c r="B39" s="179">
+        <v>31</v>
+      </c>
+      <c r="C39" s="180" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="180" t="s">
+        <v>410</v>
+      </c>
+      <c r="E39" s="243" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" s="182"/>
+      <c r="K39" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182" t="s">
-        <v>367</v>
-      </c>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182" t="s">
-        <v>323</v>
-      </c>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="210"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="211"/>
-      <c r="R39" s="74"/>
+      <c r="M39" s="216"/>
+      <c r="N39" s="208"/>
+      <c r="O39" s="208"/>
+      <c r="P39" s="208"/>
+      <c r="Q39" s="209"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="16"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -8227,36 +8643,47 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="180">
+    <row r="40" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="171">
+        <v>38</v>
+      </c>
+      <c r="B40" s="179">
+        <v>32</v>
+      </c>
+      <c r="C40" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="180" t="s">
+        <v>411</v>
+      </c>
+      <c r="E40" s="243" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="181"/>
+      <c r="I40" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" s="182"/>
+      <c r="K40" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182" t="s">
-        <v>368</v>
-      </c>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>FluencyMinor</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="215"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="216"/>
-      <c r="P40" s="216"/>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="M40" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="208"/>
+      <c r="O40" s="208"/>
+      <c r="P40" s="208"/>
+      <c r="Q40" s="209"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -8268,34 +8695,37 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="180">
+    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="171">
+        <v>39</v>
+      </c>
+      <c r="B41" s="179">
+        <v>33</v>
+      </c>
+      <c r="C41" s="180" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="180" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" s="243" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="181"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B41" s="181"/>
-      <c r="C41" s="182" t="s">
-        <v>369</v>
-      </c>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="183"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="214"/>
+      <c r="P41" s="214"/>
+      <c r="Q41" s="215"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -8309,26 +8739,29 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="180">
+    <row r="42" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="171">
+        <v>40</v>
+      </c>
+      <c r="B42" s="179">
+        <v>34</v>
+      </c>
+      <c r="C42" s="180" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" s="180" t="s">
+        <v>413</v>
+      </c>
+      <c r="E42" s="243" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182" t="s">
-        <v>326</v>
-      </c>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L42" s="1"/>
@@ -8350,26 +8783,29 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="180">
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="171">
+        <v>41</v>
+      </c>
+      <c r="B43" s="179">
+        <v>35</v>
+      </c>
+      <c r="C43" s="180" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="180" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="243" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="182" t="s">
-        <v>371</v>
-      </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182" t="s">
-        <v>327</v>
-      </c>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="183"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L43" s="1"/>
@@ -8392,26 +8828,35 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="180">
+      <c r="A44" s="171">
+        <v>42</v>
+      </c>
+      <c r="B44" s="179">
+        <v>36</v>
+      </c>
+      <c r="C44" s="180" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="180" t="s">
+        <v>415</v>
+      </c>
+      <c r="E44" s="183" t="s">
+        <v>476</v>
+      </c>
+      <c r="F44" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="181"/>
+      <c r="I44" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="182"/>
+      <c r="K44" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="182" t="s">
-        <v>372</v>
-      </c>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -8433,26 +8878,35 @@
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="180">
+      <c r="A45" s="171">
+        <v>43</v>
+      </c>
+      <c r="B45" s="179">
+        <v>37</v>
+      </c>
+      <c r="C45" s="180" t="s">
+        <v>365</v>
+      </c>
+      <c r="D45" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E45" s="243" t="s">
+        <v>324</v>
+      </c>
+      <c r="F45" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="182"/>
+      <c r="K45" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="182" t="s">
-        <v>373</v>
-      </c>
-      <c r="D45" s="182"/>
-      <c r="E45" s="182" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="184"/>
-      <c r="K45" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -8474,25 +8928,28 @@
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="180">
+      <c r="A46" s="171">
+        <v>44</v>
+      </c>
+      <c r="B46" s="179">
+        <v>38</v>
+      </c>
+      <c r="C46" s="180" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="E46" s="243" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="182" t="s">
-        <v>374</v>
-      </c>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182" t="s">
-        <v>330</v>
-      </c>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L46" s="1"/>
@@ -8515,25 +8972,28 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="180">
+      <c r="A47" s="171">
+        <v>45</v>
+      </c>
+      <c r="B47" s="179">
+        <v>39</v>
+      </c>
+      <c r="C47" s="180" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" s="243" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="182" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L47" s="1"/>
@@ -8555,27 +9015,36 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="180">
+    <row r="48" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="171">
+        <v>46</v>
+      </c>
+      <c r="B48" s="179">
+        <v>40</v>
+      </c>
+      <c r="C48" s="180" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="180" t="s">
+        <v>420</v>
+      </c>
+      <c r="E48" s="243" t="s">
+        <v>477</v>
+      </c>
+      <c r="F48" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="181"/>
+      <c r="I48" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J48" s="182"/>
+      <c r="K48" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B48" s="181"/>
-      <c r="C48" s="182" t="s">
-        <v>376</v>
-      </c>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182" t="s">
-        <v>332</v>
-      </c>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8596,28 +9065,28 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="63" x14ac:dyDescent="0.2">
-      <c r="A49" s="180">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B49" s="181"/>
-      <c r="C49" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="183"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+    <row r="49" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="171">
+        <v>47</v>
+      </c>
+      <c r="B49" s="179"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="183" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" s="243"/>
+      <c r="F49" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J49" s="182"/>
+      <c r="K49" s="177"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -8637,27 +9106,36 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="63" x14ac:dyDescent="0.2">
-      <c r="A50" s="180">
+    <row r="50" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="171">
+        <v>48</v>
+      </c>
+      <c r="B50" s="179">
+        <v>41</v>
+      </c>
+      <c r="C50" s="180" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="180" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="243" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="J50" s="182"/>
+      <c r="K50" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B50" s="181"/>
-      <c r="C50" s="182" t="s">
-        <v>378</v>
-      </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="182" t="s">
-        <v>334</v>
-      </c>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="184"/>
-      <c r="K50" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyCritical</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -8678,27 +9156,34 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="180">
+    <row r="51" spans="1:29" ht="63" x14ac:dyDescent="0.2">
+      <c r="A51" s="171">
+        <v>49</v>
+      </c>
+      <c r="B51" s="179">
+        <v>42</v>
+      </c>
+      <c r="C51" s="180" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" s="184" t="s">
+        <v>422</v>
+      </c>
+      <c r="E51" s="243" t="s">
+        <v>328</v>
+      </c>
+      <c r="F51" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="181"/>
+      <c r="H51" s="181"/>
+      <c r="I51" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="182"/>
+      <c r="K51" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B51" s="181"/>
-      <c r="C51" s="182" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="182"/>
-      <c r="E51" s="182" t="s">
-        <v>335</v>
-      </c>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
-      <c r="J51" s="184"/>
-      <c r="K51" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>FluencyCritical</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8719,27 +9204,36 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="180">
+    <row r="52" spans="1:29" ht="63" x14ac:dyDescent="0.2">
+      <c r="A52" s="171">
+        <v>50</v>
+      </c>
+      <c r="B52" s="179">
+        <v>43</v>
+      </c>
+      <c r="C52" s="180" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="180" t="s">
+        <v>423</v>
+      </c>
+      <c r="E52" s="243" t="s">
+        <v>329</v>
+      </c>
+      <c r="F52" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="181"/>
+      <c r="I52" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J52" s="182"/>
+      <c r="K52" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="182" t="s">
-        <v>380</v>
-      </c>
-      <c r="D52" s="182"/>
-      <c r="E52" s="182" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="184"/>
-      <c r="K52" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>FluencyMinor</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -8760,40 +9254,39 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="180">
+    <row r="53" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="171">
+        <v>51</v>
+      </c>
+      <c r="B53" s="179">
+        <v>44</v>
+      </c>
+      <c r="C53" s="180" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" s="180" t="s">
+        <v>424</v>
+      </c>
+      <c r="E53" s="243" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181"/>
+      <c r="H53" s="181"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B53" s="181"/>
-      <c r="C53" s="182" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="209" t="s">
-        <v>95</v>
-      </c>
-      <c r="N53" s="210"/>
-      <c r="O53" s="210"/>
-      <c r="P53" s="210"/>
-      <c r="Q53" s="211"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -8805,40 +9298,39 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" s="180">
+    <row r="54" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="171">
+        <v>52</v>
+      </c>
+      <c r="B54" s="179">
+        <v>45</v>
+      </c>
+      <c r="C54" s="180" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="180" t="s">
+        <v>425</v>
+      </c>
+      <c r="E54" s="243" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="182" t="s">
-        <v>382</v>
-      </c>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182" t="s">
-        <v>338</v>
-      </c>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="209" t="s">
-        <v>96</v>
-      </c>
-      <c r="N54" s="210"/>
-      <c r="O54" s="210"/>
-      <c r="P54" s="210"/>
-      <c r="Q54" s="211"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
@@ -8850,39 +9342,48 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="180">
+    <row r="55" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="171">
+        <v>53</v>
+      </c>
+      <c r="B55" s="179">
+        <v>46</v>
+      </c>
+      <c r="C55" s="180" t="s">
+        <v>374</v>
+      </c>
+      <c r="D55" s="180" t="s">
+        <v>426</v>
+      </c>
+      <c r="E55" s="243" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J55" s="182"/>
+      <c r="K55" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B55" s="181"/>
-      <c r="C55" s="182" t="s">
-        <v>383</v>
-      </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182" t="s">
-        <v>339</v>
-      </c>
-      <c r="F55" s="183"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="184"/>
-      <c r="K55" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L55" s="1"/>
-      <c r="M55" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="N55" s="210"/>
-      <c r="O55" s="210"/>
-      <c r="P55" s="210"/>
-      <c r="Q55" s="211"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="146" t="s">
-        <v>275</v>
+      <c r="M55" s="207" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" s="208"/>
+      <c r="O55" s="208"/>
+      <c r="P55" s="208"/>
+      <c r="Q55" s="209"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -8895,37 +9396,48 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="180">
+    <row r="56" spans="1:29" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="171">
+        <v>54</v>
+      </c>
+      <c r="B56" s="179">
+        <v>47</v>
+      </c>
+      <c r="C56" s="180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="180" t="s">
+        <v>427</v>
+      </c>
+      <c r="E56" s="243" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J56" s="182"/>
+      <c r="K56" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B56" s="181"/>
-      <c r="C56" s="182" t="s">
-        <v>384</v>
-      </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182" t="s">
-        <v>340</v>
-      </c>
-      <c r="F56" s="183"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="218"/>
-      <c r="N56" s="210"/>
-      <c r="O56" s="210"/>
-      <c r="P56" s="210"/>
-      <c r="Q56" s="211"/>
+      <c r="M56" s="207" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" s="208"/>
+      <c r="O56" s="208"/>
+      <c r="P56" s="208"/>
+      <c r="Q56" s="209"/>
       <c r="R56" s="74"/>
-      <c r="S56" s="146" t="s">
-        <v>276</v>
+      <c r="S56" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -8939,38 +9451,47 @@
       <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="180">
+      <c r="A57" s="171">
+        <v>55</v>
+      </c>
+      <c r="B57" s="179">
+        <v>48</v>
+      </c>
+      <c r="C57" s="180" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57" s="180" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="243" t="s">
+        <v>479</v>
+      </c>
+      <c r="F57" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="181"/>
+      <c r="I57" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J57" s="182"/>
+      <c r="K57" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B57" s="181"/>
-      <c r="C57" s="182" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182" t="s">
-        <v>341</v>
-      </c>
-      <c r="F57" s="183"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="183"/>
-      <c r="J57" s="184"/>
-      <c r="K57" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="211"/>
-      <c r="R57" s="74"/>
+      <c r="M57" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="N57" s="208"/>
+      <c r="O57" s="208"/>
+      <c r="P57" s="208"/>
+      <c r="Q57" s="209"/>
+      <c r="R57" s="1"/>
       <c r="S57" s="146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -8983,33 +9504,46 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="180">
+    <row r="58" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="171">
+        <v>56</v>
+      </c>
+      <c r="B58" s="179">
+        <v>49</v>
+      </c>
+      <c r="C58" s="180" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="180" t="s">
+        <v>429</v>
+      </c>
+      <c r="E58" s="243" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J58" s="182"/>
+      <c r="K58" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B58" s="181"/>
-      <c r="C58" s="182"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
-      <c r="I58" s="183"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="218"/>
-      <c r="N58" s="210"/>
-      <c r="O58" s="210"/>
-      <c r="P58" s="210"/>
-      <c r="Q58" s="211"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="147" t="s">
-        <v>109</v>
+      <c r="M58" s="216"/>
+      <c r="N58" s="208"/>
+      <c r="O58" s="208"/>
+      <c r="P58" s="208"/>
+      <c r="Q58" s="209"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="146" t="s">
+        <v>276</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -9022,34 +9556,49 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="180">
+    <row r="59" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="171">
+        <v>57</v>
+      </c>
+      <c r="B59" s="179">
+        <v>50</v>
+      </c>
+      <c r="C59" s="180" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="180" t="s">
+        <v>430</v>
+      </c>
+      <c r="E59" s="243" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="181"/>
+      <c r="I59" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J59" s="182"/>
+      <c r="K59" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B59" s="181"/>
-      <c r="C59" s="182"/>
-      <c r="D59" s="182"/>
-      <c r="E59" s="182"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="184"/>
-      <c r="K59" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L59" s="1"/>
-      <c r="M59" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="N59" s="210"/>
-      <c r="O59" s="210"/>
-      <c r="P59" s="210"/>
-      <c r="Q59" s="211"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="16"/>
+      <c r="M59" s="207" t="s">
+        <v>100</v>
+      </c>
+      <c r="N59" s="208"/>
+      <c r="O59" s="208"/>
+      <c r="P59" s="208"/>
+      <c r="Q59" s="209"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="146" t="s">
+        <v>277</v>
+      </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -9061,32 +9610,41 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="180">
+    <row r="60" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="171">
+        <v>58</v>
+      </c>
+      <c r="B60" s="179">
+        <v>51</v>
+      </c>
+      <c r="C60" s="180" t="s">
+        <v>400</v>
+      </c>
+      <c r="D60" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="E60" s="243" t="s">
+        <v>431</v>
+      </c>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
+      <c r="I60" s="181"/>
+      <c r="J60" s="182"/>
+      <c r="K60" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B60" s="181"/>
-      <c r="C60" s="182"/>
-      <c r="D60" s="182"/>
-      <c r="E60" s="182"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="183"/>
-      <c r="I60" s="183"/>
-      <c r="J60" s="184"/>
-      <c r="K60" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="218"/>
-      <c r="N60" s="210"/>
-      <c r="O60" s="210"/>
-      <c r="P60" s="210"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="16"/>
+      <c r="M60" s="216"/>
+      <c r="N60" s="208"/>
+      <c r="O60" s="208"/>
+      <c r="P60" s="208"/>
+      <c r="Q60" s="209"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="147" t="s">
+        <v>109</v>
+      </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -9098,33 +9656,46 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="180">
+    <row r="61" spans="1:29" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="171">
+        <v>59</v>
+      </c>
+      <c r="B61" s="179">
+        <v>52</v>
+      </c>
+      <c r="C61" s="180" t="s">
+        <v>401</v>
+      </c>
+      <c r="D61" s="180" t="s">
+        <v>433</v>
+      </c>
+      <c r="E61" s="243" t="s">
+        <v>480</v>
+      </c>
+      <c r="F61" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H61" s="181"/>
+      <c r="I61" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J61" s="182"/>
+      <c r="K61" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B61" s="181"/>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="H61" s="183"/>
-      <c r="I61" s="183"/>
-      <c r="J61" s="184"/>
-      <c r="K61" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L61" s="1"/>
-      <c r="M61" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
-      <c r="P61" s="210"/>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="74"/>
+      <c r="M61" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="N61" s="208"/>
+      <c r="O61" s="208"/>
+      <c r="P61" s="208"/>
+      <c r="Q61" s="209"/>
+      <c r="R61" s="13"/>
       <c r="S61" s="16"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -9137,32 +9708,39 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="180">
+    <row r="62" spans="1:29" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="171">
+        <v>60</v>
+      </c>
+      <c r="B62" s="179">
+        <v>53</v>
+      </c>
+      <c r="C62" s="180" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="180" t="s">
+        <v>435</v>
+      </c>
+      <c r="E62" s="243" t="s">
+        <v>434</v>
+      </c>
+      <c r="F62" s="181"/>
+      <c r="G62" s="181"/>
+      <c r="H62" s="181"/>
+      <c r="I62" s="181"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B62" s="181"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="183"/>
-      <c r="H62" s="183"/>
-      <c r="I62" s="183"/>
-      <c r="J62" s="184"/>
-      <c r="K62" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L62" s="1"/>
-      <c r="M62" s="215"/>
-      <c r="N62" s="216"/>
-      <c r="O62" s="216"/>
-      <c r="P62" s="216"/>
-      <c r="Q62" s="217"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+      <c r="M62" s="216"/>
+      <c r="N62" s="208"/>
+      <c r="O62" s="208"/>
+      <c r="P62" s="208"/>
+      <c r="Q62" s="209"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="16"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -9174,32 +9752,41 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="180">
+    <row r="63" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="171">
+        <v>61</v>
+      </c>
+      <c r="B63" s="179">
+        <v>54</v>
+      </c>
+      <c r="C63" s="180" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" s="180" t="s">
+        <v>437</v>
+      </c>
+      <c r="E63" s="243" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="182"/>
+      <c r="K63" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B63" s="181"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="182"/>
-      <c r="E63" s="182"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="183"/>
-      <c r="I63" s="183"/>
-      <c r="J63" s="184"/>
-      <c r="K63" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="M63" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="N63" s="208"/>
+      <c r="O63" s="208"/>
+      <c r="P63" s="208"/>
+      <c r="Q63" s="209"/>
+      <c r="R63" s="74"/>
+      <c r="S63" s="16"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -9211,30 +9798,37 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="180">
+    <row r="64" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="171">
+        <v>62</v>
+      </c>
+      <c r="B64" s="179">
+        <v>55</v>
+      </c>
+      <c r="C64" s="180" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="180" t="s">
+        <v>439</v>
+      </c>
+      <c r="E64" s="243" t="s">
+        <v>438</v>
+      </c>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B64" s="181"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="182"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
-      <c r="I64" s="183"/>
-      <c r="J64" s="184"/>
-      <c r="K64" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="214"/>
+      <c r="O64" s="214"/>
+      <c r="P64" s="214"/>
+      <c r="Q64" s="215"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -9248,23 +9842,36 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="180">
+    <row r="65" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="171">
+        <v>63</v>
+      </c>
+      <c r="B65" s="179">
+        <v>56</v>
+      </c>
+      <c r="C65" s="180" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" s="180" t="s">
+        <v>481</v>
+      </c>
+      <c r="E65" s="243" t="s">
+        <v>440</v>
+      </c>
+      <c r="F65" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="181"/>
+      <c r="I65" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J65" s="182"/>
+      <c r="K65" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B65" s="181"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="182"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
-      <c r="I65" s="183"/>
-      <c r="J65" s="184"/>
-      <c r="K65" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -9285,23 +9892,36 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="180">
+    <row r="66" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="171">
+        <v>64</v>
+      </c>
+      <c r="B66" s="179">
+        <v>57</v>
+      </c>
+      <c r="C66" s="180" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="180" t="s">
+        <v>482</v>
+      </c>
+      <c r="E66" s="243" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="181"/>
+      <c r="I66" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" s="182"/>
+      <c r="K66" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B66" s="181"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="183"/>
-      <c r="G66" s="183"/>
-      <c r="H66" s="183"/>
-      <c r="I66" s="183"/>
-      <c r="J66" s="184"/>
-      <c r="K66" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -9322,23 +9942,36 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="180">
+    <row r="67" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="171">
+        <v>65</v>
+      </c>
+      <c r="B67" s="179">
+        <v>58</v>
+      </c>
+      <c r="C67" s="180" t="s">
+        <v>407</v>
+      </c>
+      <c r="D67" s="180" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="243" t="s">
+        <v>442</v>
+      </c>
+      <c r="F67" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="181"/>
+      <c r="I67" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="J67" s="182"/>
+      <c r="K67" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B67" s="181"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="182"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
-      <c r="I67" s="183"/>
-      <c r="J67" s="184"/>
-      <c r="K67" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMajor</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -9359,23 +9992,36 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="180">
+    <row r="68" spans="1:29" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="171">
+        <v>66</v>
+      </c>
+      <c r="B68" s="179">
+        <v>59</v>
+      </c>
+      <c r="C68" s="180" t="s">
+        <v>408</v>
+      </c>
+      <c r="D68" s="180" t="s">
+        <v>445</v>
+      </c>
+      <c r="E68" s="243" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="181"/>
+      <c r="I68" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="J68" s="182"/>
+      <c r="K68" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B68" s="181"/>
-      <c r="C68" s="182"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="182"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="183"/>
-      <c r="H68" s="183"/>
-      <c r="I68" s="183"/>
-      <c r="J68" s="184"/>
-      <c r="K68" s="179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>AccuracyMinor</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -9396,22 +10042,29 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="180">
+    <row r="69" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="171">
+        <v>67</v>
+      </c>
+      <c r="B69" s="179">
+        <v>60</v>
+      </c>
+      <c r="C69" s="180" t="s">
+        <v>409</v>
+      </c>
+      <c r="D69" s="180" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" s="243" t="s">
+        <v>444</v>
+      </c>
+      <c r="F69" s="181"/>
+      <c r="G69" s="181"/>
+      <c r="H69" s="181"/>
+      <c r="I69" s="181"/>
+      <c r="J69" s="182"/>
+      <c r="K69" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B69" s="181"/>
-      <c r="C69" s="182"/>
-      <c r="D69" s="182"/>
-      <c r="E69" s="182"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
-      <c r="I69" s="183"/>
-      <c r="J69" s="184"/>
-      <c r="K69" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L69" s="1"/>
@@ -9434,21 +10087,21 @@
       <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="180">
+      <c r="A70" s="178">
+        <f t="shared" ref="A4:A74" si="2">A69+1</f>
+        <v>68</v>
+      </c>
+      <c r="B70" s="179"/>
+      <c r="C70" s="180"/>
+      <c r="D70" s="180"/>
+      <c r="E70" s="243"/>
+      <c r="F70" s="181"/>
+      <c r="G70" s="181"/>
+      <c r="H70" s="181"/>
+      <c r="I70" s="181"/>
+      <c r="J70" s="182"/>
+      <c r="K70" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B70" s="181"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="184"/>
-      <c r="K70" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L70" s="1"/>
@@ -9471,21 +10124,21 @@
       <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="180">
+      <c r="A71" s="178">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="179"/>
+      <c r="C71" s="180"/>
+      <c r="D71" s="180"/>
+      <c r="E71" s="243"/>
+      <c r="F71" s="181"/>
+      <c r="G71" s="181"/>
+      <c r="H71" s="181"/>
+      <c r="I71" s="181"/>
+      <c r="J71" s="182"/>
+      <c r="K71" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B71" s="181"/>
-      <c r="C71" s="182"/>
-      <c r="D71" s="182"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="183"/>
-      <c r="H71" s="183"/>
-      <c r="I71" s="183"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L71" s="1"/>
@@ -9508,21 +10161,21 @@
       <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="180">
+      <c r="A72" s="178">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="179"/>
+      <c r="C72" s="180"/>
+      <c r="D72" s="180"/>
+      <c r="E72" s="243"/>
+      <c r="F72" s="181"/>
+      <c r="G72" s="181"/>
+      <c r="H72" s="181"/>
+      <c r="I72" s="181"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="177" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B72" s="181"/>
-      <c r="C72" s="182"/>
-      <c r="D72" s="182"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="183"/>
-      <c r="J72" s="184"/>
-      <c r="K72" s="179" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L72" s="1"/>
@@ -9545,21 +10198,21 @@
       <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="180">
-        <f t="shared" ref="A73:A107" si="3">A72+1</f>
-        <v>66</v>
-      </c>
-      <c r="B73" s="181"/>
-      <c r="C73" s="182"/>
-      <c r="D73" s="182"/>
-      <c r="E73" s="182"/>
-      <c r="F73" s="183"/>
-      <c r="G73" s="183"/>
-      <c r="H73" s="183"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="179" t="str">
+      <c r="A73" s="178">
         <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="179"/>
+      <c r="C73" s="180"/>
+      <c r="D73" s="180"/>
+      <c r="E73" s="243"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="181"/>
+      <c r="H73" s="181"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="177" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L73" s="1"/>
@@ -9582,21 +10235,21 @@
       <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="180">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="B74" s="181"/>
-      <c r="C74" s="182"/>
-      <c r="D74" s="182"/>
-      <c r="E74" s="182"/>
-      <c r="F74" s="183"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="179" t="str">
+      <c r="A74" s="178">
         <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="179"/>
+      <c r="C74" s="180"/>
+      <c r="D74" s="180"/>
+      <c r="E74" s="243"/>
+      <c r="F74" s="181"/>
+      <c r="G74" s="181"/>
+      <c r="H74" s="181"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="177" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L74" s="1"/>
@@ -9618,34 +10271,32 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="180">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="B75" s="181"/>
-      <c r="C75" s="182"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="183"/>
-      <c r="G75" s="183"/>
-      <c r="H75" s="183"/>
-      <c r="I75" s="183"/>
-      <c r="J75" s="184"/>
-      <c r="K75" s="179" t="str">
-        <f t="shared" ref="K75:K90" si="4">CONCATENATE(F75,I75)</f>
+    <row r="75" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="178">
+        <f t="shared" ref="A75:A109" si="3">A74+1</f>
+        <v>73</v>
+      </c>
+      <c r="B75" s="179"/>
+      <c r="C75" s="180"/>
+      <c r="D75" s="180"/>
+      <c r="E75" s="243"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="181"/>
+      <c r="H75" s="181"/>
+      <c r="I75" s="181"/>
+      <c r="J75" s="182"/>
+      <c r="K75" s="177" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L75" s="1"/>
-      <c r="M75" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="N75" s="210"/>
-      <c r="O75" s="210"/>
-      <c r="P75" s="210"/>
-      <c r="Q75" s="211"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="16"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
@@ -9657,32 +10308,32 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="180">
+    <row r="76" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="178">
         <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="B76" s="181"/>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="183"/>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
-      <c r="I76" s="183"/>
-      <c r="J76" s="184"/>
-      <c r="K76" s="179" t="str">
-        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="179"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="180"/>
+      <c r="E76" s="243"/>
+      <c r="F76" s="181"/>
+      <c r="G76" s="181"/>
+      <c r="H76" s="181"/>
+      <c r="I76" s="181"/>
+      <c r="J76" s="182"/>
+      <c r="K76" s="177" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L76" s="1"/>
-      <c r="M76" s="218"/>
-      <c r="N76" s="210"/>
-      <c r="O76" s="210"/>
-      <c r="P76" s="210"/>
-      <c r="Q76" s="211"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="16"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
@@ -9695,32 +10346,32 @@
       <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="180">
+      <c r="A77" s="178">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="B77" s="181"/>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
-      <c r="E77" s="182"/>
-      <c r="F77" s="183"/>
-      <c r="G77" s="183"/>
-      <c r="H77" s="183"/>
-      <c r="I77" s="183"/>
-      <c r="J77" s="184"/>
-      <c r="K77" s="179" t="str">
-        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="179"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="181"/>
+      <c r="G77" s="181"/>
+      <c r="H77" s="181"/>
+      <c r="I77" s="181"/>
+      <c r="J77" s="182"/>
+      <c r="K77" s="177" t="str">
+        <f t="shared" ref="K77:K92" si="4">CONCATENATE(F77,I77)</f>
         <v/>
       </c>
       <c r="L77" s="1"/>
-      <c r="M77" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="N77" s="210"/>
-      <c r="O77" s="210"/>
-      <c r="P77" s="210"/>
-      <c r="Q77" s="211"/>
-      <c r="R77" s="74"/>
+      <c r="M77" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="N77" s="208"/>
+      <c r="O77" s="208"/>
+      <c r="P77" s="208"/>
+      <c r="Q77" s="209"/>
+      <c r="R77" s="13"/>
       <c r="S77" s="16"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
@@ -9733,32 +10384,32 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="180">
+    <row r="78" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="178">
         <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="B78" s="181"/>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="183"/>
-      <c r="G78" s="183"/>
-      <c r="H78" s="183"/>
-      <c r="I78" s="183"/>
-      <c r="J78" s="184"/>
-      <c r="K78" s="179" t="str">
+        <v>76</v>
+      </c>
+      <c r="B78" s="179"/>
+      <c r="C78" s="180"/>
+      <c r="D78" s="180"/>
+      <c r="E78" s="243"/>
+      <c r="F78" s="181"/>
+      <c r="G78" s="181"/>
+      <c r="H78" s="181"/>
+      <c r="I78" s="181"/>
+      <c r="J78" s="182"/>
+      <c r="K78" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L78" s="1"/>
-      <c r="M78" s="215"/>
-      <c r="N78" s="216"/>
-      <c r="O78" s="216"/>
-      <c r="P78" s="216"/>
-      <c r="Q78" s="217"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="M78" s="216"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="16"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -9770,32 +10421,34 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="180">
+    <row r="79" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="178">
         <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="B79" s="181"/>
-      <c r="C79" s="182"/>
-      <c r="D79" s="182"/>
-      <c r="E79" s="182"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
-      <c r="I79" s="183"/>
-      <c r="J79" s="184"/>
-      <c r="K79" s="179" t="str">
+        <v>77</v>
+      </c>
+      <c r="B79" s="179"/>
+      <c r="C79" s="180"/>
+      <c r="D79" s="180"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="181"/>
+      <c r="G79" s="181"/>
+      <c r="H79" s="181"/>
+      <c r="I79" s="181"/>
+      <c r="J79" s="182"/>
+      <c r="K79" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="M79" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" s="208"/>
+      <c r="O79" s="208"/>
+      <c r="P79" s="208"/>
+      <c r="Q79" s="209"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="16"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
@@ -9808,29 +10461,29 @@
       <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="180">
+      <c r="A80" s="178">
         <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="B80" s="181"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
-      <c r="E80" s="182"/>
-      <c r="F80" s="183"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
-      <c r="I80" s="183"/>
-      <c r="J80" s="184"/>
-      <c r="K80" s="179" t="str">
+        <v>78</v>
+      </c>
+      <c r="B80" s="179"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
+      <c r="E80" s="243"/>
+      <c r="F80" s="181"/>
+      <c r="G80" s="181"/>
+      <c r="H80" s="181"/>
+      <c r="I80" s="181"/>
+      <c r="J80" s="182"/>
+      <c r="K80" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="M80" s="213"/>
+      <c r="N80" s="214"/>
+      <c r="O80" s="214"/>
+      <c r="P80" s="214"/>
+      <c r="Q80" s="215"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -9845,20 +10498,20 @@
       <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="180">
+      <c r="A81" s="178">
         <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="B81" s="181"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="182"/>
-      <c r="E81" s="182"/>
-      <c r="F81" s="183"/>
-      <c r="G81" s="183"/>
-      <c r="H81" s="183"/>
-      <c r="I81" s="183"/>
-      <c r="J81" s="184"/>
-      <c r="K81" s="179" t="str">
+        <v>79</v>
+      </c>
+      <c r="B81" s="179"/>
+      <c r="C81" s="180"/>
+      <c r="D81" s="180"/>
+      <c r="E81" s="243"/>
+      <c r="F81" s="181"/>
+      <c r="G81" s="181"/>
+      <c r="H81" s="181"/>
+      <c r="I81" s="181"/>
+      <c r="J81" s="182"/>
+      <c r="K81" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9882,20 +10535,20 @@
       <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="180">
+      <c r="A82" s="178">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="B82" s="181"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
-      <c r="F82" s="183"/>
-      <c r="G82" s="183"/>
-      <c r="H82" s="183"/>
-      <c r="I82" s="183"/>
-      <c r="J82" s="184"/>
-      <c r="K82" s="179" t="str">
+        <v>80</v>
+      </c>
+      <c r="B82" s="179"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="243"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="181"/>
+      <c r="I82" s="181"/>
+      <c r="J82" s="182"/>
+      <c r="K82" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9919,20 +10572,20 @@
       <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="180">
+      <c r="A83" s="178">
         <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B83" s="181"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="183"/>
-      <c r="G83" s="183"/>
-      <c r="H83" s="183"/>
-      <c r="I83" s="183"/>
-      <c r="J83" s="184"/>
-      <c r="K83" s="179" t="str">
+        <v>81</v>
+      </c>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="243"/>
+      <c r="F83" s="181"/>
+      <c r="G83" s="181"/>
+      <c r="H83" s="181"/>
+      <c r="I83" s="181"/>
+      <c r="J83" s="182"/>
+      <c r="K83" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9956,20 +10609,20 @@
       <c r="AC83" s="1"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="180">
+      <c r="A84" s="178">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="183"/>
-      <c r="G84" s="183"/>
-      <c r="H84" s="183"/>
-      <c r="I84" s="183"/>
-      <c r="J84" s="184"/>
-      <c r="K84" s="179" t="str">
+        <v>82</v>
+      </c>
+      <c r="B84" s="179"/>
+      <c r="C84" s="180"/>
+      <c r="D84" s="180"/>
+      <c r="E84" s="243"/>
+      <c r="F84" s="181"/>
+      <c r="G84" s="181"/>
+      <c r="H84" s="181"/>
+      <c r="I84" s="181"/>
+      <c r="J84" s="182"/>
+      <c r="K84" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9993,20 +10646,20 @@
       <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="180">
+      <c r="A85" s="178">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B85" s="181"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="183"/>
-      <c r="H85" s="183"/>
-      <c r="I85" s="183"/>
-      <c r="J85" s="184"/>
-      <c r="K85" s="179" t="str">
+        <v>83</v>
+      </c>
+      <c r="B85" s="179"/>
+      <c r="C85" s="180"/>
+      <c r="D85" s="180"/>
+      <c r="E85" s="243"/>
+      <c r="F85" s="181"/>
+      <c r="G85" s="181"/>
+      <c r="H85" s="181"/>
+      <c r="I85" s="181"/>
+      <c r="J85" s="182"/>
+      <c r="K85" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10030,20 +10683,20 @@
       <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="180">
+      <c r="A86" s="178">
         <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="B86" s="181"/>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
-      <c r="E86" s="182"/>
-      <c r="F86" s="183"/>
-      <c r="G86" s="183"/>
-      <c r="H86" s="183"/>
-      <c r="I86" s="183"/>
-      <c r="J86" s="184"/>
-      <c r="K86" s="179" t="str">
+        <v>84</v>
+      </c>
+      <c r="B86" s="179"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="243"/>
+      <c r="F86" s="181"/>
+      <c r="G86" s="181"/>
+      <c r="H86" s="181"/>
+      <c r="I86" s="181"/>
+      <c r="J86" s="182"/>
+      <c r="K86" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10067,20 +10720,20 @@
       <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="180">
+      <c r="A87" s="178">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B87" s="181"/>
-      <c r="C87" s="182"/>
-      <c r="D87" s="182"/>
-      <c r="E87" s="182"/>
-      <c r="F87" s="183"/>
-      <c r="G87" s="183"/>
-      <c r="H87" s="183"/>
-      <c r="I87" s="183"/>
-      <c r="J87" s="184"/>
-      <c r="K87" s="179" t="str">
+        <v>85</v>
+      </c>
+      <c r="B87" s="179"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="243"/>
+      <c r="F87" s="181"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="181"/>
+      <c r="I87" s="181"/>
+      <c r="J87" s="182"/>
+      <c r="K87" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10104,20 +10757,20 @@
       <c r="AC87" s="1"/>
     </row>
     <row r="88" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="180">
+      <c r="A88" s="178">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="182"/>
-      <c r="D88" s="182"/>
-      <c r="E88" s="182"/>
-      <c r="F88" s="183"/>
-      <c r="G88" s="183"/>
-      <c r="H88" s="183"/>
-      <c r="I88" s="183"/>
-      <c r="J88" s="184"/>
-      <c r="K88" s="179" t="str">
+        <v>86</v>
+      </c>
+      <c r="B88" s="179"/>
+      <c r="C88" s="180"/>
+      <c r="D88" s="180"/>
+      <c r="E88" s="243"/>
+      <c r="F88" s="181"/>
+      <c r="G88" s="181"/>
+      <c r="H88" s="181"/>
+      <c r="I88" s="181"/>
+      <c r="J88" s="182"/>
+      <c r="K88" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10141,20 +10794,20 @@
       <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="180">
+      <c r="A89" s="178">
         <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B89" s="181"/>
-      <c r="C89" s="182"/>
-      <c r="D89" s="182"/>
-      <c r="E89" s="182"/>
-      <c r="F89" s="183"/>
-      <c r="G89" s="183"/>
-      <c r="H89" s="183"/>
-      <c r="I89" s="183"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="179" t="str">
+        <v>87</v>
+      </c>
+      <c r="B89" s="179"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="243"/>
+      <c r="F89" s="181"/>
+      <c r="G89" s="181"/>
+      <c r="H89" s="181"/>
+      <c r="I89" s="181"/>
+      <c r="J89" s="182"/>
+      <c r="K89" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10178,20 +10831,20 @@
       <c r="AC89" s="1"/>
     </row>
     <row r="90" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="180">
+      <c r="A90" s="178">
         <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B90" s="181"/>
-      <c r="C90" s="182"/>
-      <c r="D90" s="182"/>
-      <c r="E90" s="182"/>
-      <c r="F90" s="183"/>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
-      <c r="I90" s="183"/>
-      <c r="J90" s="184"/>
-      <c r="K90" s="179" t="str">
+        <v>88</v>
+      </c>
+      <c r="B90" s="179"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="180"/>
+      <c r="E90" s="243"/>
+      <c r="F90" s="181"/>
+      <c r="G90" s="181"/>
+      <c r="H90" s="181"/>
+      <c r="I90" s="181"/>
+      <c r="J90" s="182"/>
+      <c r="K90" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10214,34 +10867,32 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="180">
+    <row r="91" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="178">
         <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B91" s="181"/>
-      <c r="C91" s="182"/>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="183"/>
-      <c r="G91" s="183"/>
-      <c r="H91" s="183"/>
-      <c r="I91" s="183"/>
-      <c r="J91" s="184"/>
-      <c r="K91" s="179" t="str">
-        <f t="shared" ref="K91:K106" si="5">CONCATENATE(F91,I91)</f>
+        <v>89</v>
+      </c>
+      <c r="B91" s="179"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="180"/>
+      <c r="E91" s="243"/>
+      <c r="F91" s="181"/>
+      <c r="G91" s="181"/>
+      <c r="H91" s="181"/>
+      <c r="I91" s="181"/>
+      <c r="J91" s="182"/>
+      <c r="K91" s="177" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L91" s="1"/>
-      <c r="M91" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="N91" s="210"/>
-      <c r="O91" s="210"/>
-      <c r="P91" s="210"/>
-      <c r="Q91" s="211"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="16"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
@@ -10253,32 +10904,32 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="180">
+    <row r="92" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="178">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B92" s="181"/>
-      <c r="C92" s="182"/>
-      <c r="D92" s="182"/>
-      <c r="E92" s="182"/>
-      <c r="F92" s="183"/>
-      <c r="G92" s="183"/>
-      <c r="H92" s="183"/>
-      <c r="I92" s="183"/>
-      <c r="J92" s="184"/>
-      <c r="K92" s="179" t="str">
-        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="179"/>
+      <c r="C92" s="180"/>
+      <c r="D92" s="180"/>
+      <c r="E92" s="243"/>
+      <c r="F92" s="181"/>
+      <c r="G92" s="181"/>
+      <c r="H92" s="181"/>
+      <c r="I92" s="181"/>
+      <c r="J92" s="182"/>
+      <c r="K92" s="177" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L92" s="1"/>
-      <c r="M92" s="218"/>
-      <c r="N92" s="210"/>
-      <c r="O92" s="210"/>
-      <c r="P92" s="210"/>
-      <c r="Q92" s="211"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="16"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
@@ -10291,32 +10942,32 @@
       <c r="AC92" s="1"/>
     </row>
     <row r="93" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="180">
+      <c r="A93" s="178">
         <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="B93" s="181"/>
-      <c r="C93" s="182"/>
-      <c r="D93" s="182"/>
-      <c r="E93" s="182"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
-      <c r="I93" s="183"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="179" t="str">
-        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="179"/>
+      <c r="C93" s="180"/>
+      <c r="D93" s="180"/>
+      <c r="E93" s="243"/>
+      <c r="F93" s="181"/>
+      <c r="G93" s="181"/>
+      <c r="H93" s="181"/>
+      <c r="I93" s="181"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="177" t="str">
+        <f t="shared" ref="K93:K108" si="5">CONCATENATE(F93,I93)</f>
         <v/>
       </c>
       <c r="L93" s="1"/>
-      <c r="M93" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="N93" s="210"/>
-      <c r="O93" s="210"/>
-      <c r="P93" s="210"/>
-      <c r="Q93" s="211"/>
-      <c r="R93" s="74"/>
+      <c r="M93" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="N93" s="208"/>
+      <c r="O93" s="208"/>
+      <c r="P93" s="208"/>
+      <c r="Q93" s="209"/>
+      <c r="R93" s="13"/>
       <c r="S93" s="16"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -10329,32 +10980,32 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="180">
+    <row r="94" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="178">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="B94" s="181"/>
-      <c r="C94" s="182"/>
-      <c r="D94" s="182"/>
-      <c r="E94" s="182"/>
-      <c r="F94" s="183"/>
-      <c r="G94" s="183"/>
-      <c r="H94" s="183"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="184"/>
-      <c r="K94" s="179" t="str">
+        <v>92</v>
+      </c>
+      <c r="B94" s="179"/>
+      <c r="C94" s="180"/>
+      <c r="D94" s="180"/>
+      <c r="E94" s="243"/>
+      <c r="F94" s="181"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="181"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L94" s="1"/>
-      <c r="M94" s="215"/>
-      <c r="N94" s="216"/>
-      <c r="O94" s="216"/>
-      <c r="P94" s="216"/>
-      <c r="Q94" s="217"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
+      <c r="M94" s="216"/>
+      <c r="N94" s="208"/>
+      <c r="O94" s="208"/>
+      <c r="P94" s="208"/>
+      <c r="Q94" s="209"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="16"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -10366,32 +11017,34 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="180">
+    <row r="95" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="178">
         <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="B95" s="181"/>
-      <c r="C95" s="182"/>
-      <c r="D95" s="182"/>
-      <c r="E95" s="182"/>
-      <c r="F95" s="183"/>
-      <c r="G95" s="183"/>
-      <c r="H95" s="183"/>
-      <c r="I95" s="183"/>
-      <c r="J95" s="184"/>
-      <c r="K95" s="179" t="str">
+        <v>93</v>
+      </c>
+      <c r="B95" s="179"/>
+      <c r="C95" s="180"/>
+      <c r="D95" s="180"/>
+      <c r="E95" s="243"/>
+      <c r="F95" s="181"/>
+      <c r="G95" s="181"/>
+      <c r="H95" s="181"/>
+      <c r="I95" s="181"/>
+      <c r="J95" s="182"/>
+      <c r="K95" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="M95" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="N95" s="208"/>
+      <c r="O95" s="208"/>
+      <c r="P95" s="208"/>
+      <c r="Q95" s="209"/>
+      <c r="R95" s="74"/>
+      <c r="S95" s="16"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -10404,29 +11057,29 @@
       <c r="AC95" s="1"/>
     </row>
     <row r="96" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="180">
+      <c r="A96" s="178">
         <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B96" s="181"/>
-      <c r="C96" s="182"/>
-      <c r="D96" s="182"/>
-      <c r="E96" s="182"/>
-      <c r="F96" s="183"/>
-      <c r="G96" s="183"/>
-      <c r="H96" s="183"/>
-      <c r="I96" s="183"/>
-      <c r="J96" s="184"/>
-      <c r="K96" s="179" t="str">
+        <v>94</v>
+      </c>
+      <c r="B96" s="179"/>
+      <c r="C96" s="180"/>
+      <c r="D96" s="180"/>
+      <c r="E96" s="243"/>
+      <c r="F96" s="181"/>
+      <c r="G96" s="181"/>
+      <c r="H96" s="181"/>
+      <c r="I96" s="181"/>
+      <c r="J96" s="182"/>
+      <c r="K96" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="M96" s="213"/>
+      <c r="N96" s="214"/>
+      <c r="O96" s="214"/>
+      <c r="P96" s="214"/>
+      <c r="Q96" s="215"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -10441,20 +11094,20 @@
       <c r="AC96" s="1"/>
     </row>
     <row r="97" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="180">
+      <c r="A97" s="178">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B97" s="181"/>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="182"/>
-      <c r="F97" s="183"/>
-      <c r="G97" s="183"/>
-      <c r="H97" s="183"/>
-      <c r="I97" s="183"/>
-      <c r="J97" s="184"/>
-      <c r="K97" s="179" t="str">
+        <v>95</v>
+      </c>
+      <c r="B97" s="179"/>
+      <c r="C97" s="180"/>
+      <c r="D97" s="180"/>
+      <c r="E97" s="243"/>
+      <c r="F97" s="181"/>
+      <c r="G97" s="181"/>
+      <c r="H97" s="181"/>
+      <c r="I97" s="181"/>
+      <c r="J97" s="182"/>
+      <c r="K97" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10478,20 +11131,20 @@
       <c r="AC97" s="1"/>
     </row>
     <row r="98" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="180">
+      <c r="A98" s="178">
         <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B98" s="181"/>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="182"/>
-      <c r="F98" s="183"/>
-      <c r="G98" s="183"/>
-      <c r="H98" s="183"/>
-      <c r="I98" s="183"/>
-      <c r="J98" s="184"/>
-      <c r="K98" s="179" t="str">
+        <v>96</v>
+      </c>
+      <c r="B98" s="179"/>
+      <c r="C98" s="180"/>
+      <c r="D98" s="180"/>
+      <c r="E98" s="243"/>
+      <c r="F98" s="181"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="181"/>
+      <c r="I98" s="181"/>
+      <c r="J98" s="182"/>
+      <c r="K98" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10515,20 +11168,20 @@
       <c r="AC98" s="1"/>
     </row>
     <row r="99" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="180">
+      <c r="A99" s="178">
         <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B99" s="181"/>
-      <c r="C99" s="182"/>
-      <c r="D99" s="182"/>
-      <c r="E99" s="182"/>
-      <c r="F99" s="183"/>
-      <c r="G99" s="183"/>
-      <c r="H99" s="183"/>
-      <c r="I99" s="183"/>
-      <c r="J99" s="184"/>
-      <c r="K99" s="179" t="str">
+        <v>97</v>
+      </c>
+      <c r="B99" s="179"/>
+      <c r="C99" s="180"/>
+      <c r="D99" s="180"/>
+      <c r="E99" s="243"/>
+      <c r="F99" s="181"/>
+      <c r="G99" s="181"/>
+      <c r="H99" s="181"/>
+      <c r="I99" s="181"/>
+      <c r="J99" s="182"/>
+      <c r="K99" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10552,20 +11205,20 @@
       <c r="AC99" s="1"/>
     </row>
     <row r="100" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="180">
+      <c r="A100" s="178">
         <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="B100" s="181"/>
-      <c r="C100" s="182"/>
-      <c r="D100" s="182"/>
-      <c r="E100" s="182"/>
-      <c r="F100" s="183"/>
-      <c r="G100" s="183"/>
-      <c r="H100" s="183"/>
-      <c r="I100" s="183"/>
-      <c r="J100" s="184"/>
-      <c r="K100" s="179" t="str">
+        <v>98</v>
+      </c>
+      <c r="B100" s="179"/>
+      <c r="C100" s="180"/>
+      <c r="D100" s="180"/>
+      <c r="E100" s="243"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
+      <c r="I100" s="181"/>
+      <c r="J100" s="182"/>
+      <c r="K100" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10589,20 +11242,20 @@
       <c r="AC100" s="1"/>
     </row>
     <row r="101" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="180">
+      <c r="A101" s="178">
         <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="B101" s="181"/>
-      <c r="C101" s="182"/>
-      <c r="D101" s="182"/>
-      <c r="E101" s="182"/>
-      <c r="F101" s="183"/>
-      <c r="G101" s="183"/>
-      <c r="H101" s="183"/>
-      <c r="I101" s="183"/>
-      <c r="J101" s="184"/>
-      <c r="K101" s="179" t="str">
+        <v>99</v>
+      </c>
+      <c r="B101" s="179"/>
+      <c r="C101" s="180"/>
+      <c r="D101" s="180"/>
+      <c r="E101" s="243"/>
+      <c r="F101" s="181"/>
+      <c r="G101" s="181"/>
+      <c r="H101" s="181"/>
+      <c r="I101" s="181"/>
+      <c r="J101" s="182"/>
+      <c r="K101" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10626,20 +11279,20 @@
       <c r="AC101" s="1"/>
     </row>
     <row r="102" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="180">
+      <c r="A102" s="178">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="B102" s="181"/>
-      <c r="C102" s="182"/>
-      <c r="D102" s="182"/>
-      <c r="E102" s="182"/>
-      <c r="F102" s="183"/>
-      <c r="G102" s="183"/>
-      <c r="H102" s="183"/>
-      <c r="I102" s="183"/>
-      <c r="J102" s="184"/>
-      <c r="K102" s="179" t="str">
+        <v>100</v>
+      </c>
+      <c r="B102" s="179"/>
+      <c r="C102" s="180"/>
+      <c r="D102" s="180"/>
+      <c r="E102" s="243"/>
+      <c r="F102" s="181"/>
+      <c r="G102" s="181"/>
+      <c r="H102" s="181"/>
+      <c r="I102" s="181"/>
+      <c r="J102" s="182"/>
+      <c r="K102" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10663,20 +11316,20 @@
       <c r="AC102" s="1"/>
     </row>
     <row r="103" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="180">
+      <c r="A103" s="178">
         <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="B103" s="181"/>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="182"/>
-      <c r="F103" s="183"/>
-      <c r="G103" s="183"/>
-      <c r="H103" s="183"/>
-      <c r="I103" s="183"/>
-      <c r="J103" s="184"/>
-      <c r="K103" s="179" t="str">
+        <v>101</v>
+      </c>
+      <c r="B103" s="179"/>
+      <c r="C103" s="180"/>
+      <c r="D103" s="180"/>
+      <c r="E103" s="243"/>
+      <c r="F103" s="181"/>
+      <c r="G103" s="181"/>
+      <c r="H103" s="181"/>
+      <c r="I103" s="181"/>
+      <c r="J103" s="182"/>
+      <c r="K103" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10700,20 +11353,20 @@
       <c r="AC103" s="1"/>
     </row>
     <row r="104" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="180">
+      <c r="A104" s="178">
         <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="B104" s="181"/>
-      <c r="C104" s="182"/>
-      <c r="D104" s="182"/>
-      <c r="E104" s="182"/>
-      <c r="F104" s="183"/>
-      <c r="G104" s="183"/>
-      <c r="H104" s="183"/>
-      <c r="I104" s="183"/>
-      <c r="J104" s="184"/>
-      <c r="K104" s="179" t="str">
+        <v>102</v>
+      </c>
+      <c r="B104" s="179"/>
+      <c r="C104" s="180"/>
+      <c r="D104" s="180"/>
+      <c r="E104" s="243"/>
+      <c r="F104" s="181"/>
+      <c r="G104" s="181"/>
+      <c r="H104" s="181"/>
+      <c r="I104" s="181"/>
+      <c r="J104" s="182"/>
+      <c r="K104" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10737,20 +11390,20 @@
       <c r="AC104" s="1"/>
     </row>
     <row r="105" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="180">
+      <c r="A105" s="178">
         <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="B105" s="181"/>
-      <c r="C105" s="182"/>
-      <c r="D105" s="182"/>
-      <c r="E105" s="182"/>
-      <c r="F105" s="183"/>
-      <c r="G105" s="183"/>
-      <c r="H105" s="183"/>
-      <c r="I105" s="183"/>
-      <c r="J105" s="184"/>
-      <c r="K105" s="179" t="str">
+        <v>103</v>
+      </c>
+      <c r="B105" s="179"/>
+      <c r="C105" s="180"/>
+      <c r="D105" s="180"/>
+      <c r="E105" s="243"/>
+      <c r="F105" s="181"/>
+      <c r="G105" s="181"/>
+      <c r="H105" s="181"/>
+      <c r="I105" s="181"/>
+      <c r="J105" s="182"/>
+      <c r="K105" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10774,20 +11427,20 @@
       <c r="AC105" s="1"/>
     </row>
     <row r="106" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="180">
+      <c r="A106" s="178">
         <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B106" s="181"/>
-      <c r="C106" s="182"/>
-      <c r="D106" s="182"/>
-      <c r="E106" s="182"/>
-      <c r="F106" s="183"/>
-      <c r="G106" s="183"/>
-      <c r="H106" s="183"/>
-      <c r="I106" s="183"/>
-      <c r="J106" s="184"/>
-      <c r="K106" s="179" t="str">
+        <v>104</v>
+      </c>
+      <c r="B106" s="179"/>
+      <c r="C106" s="180"/>
+      <c r="D106" s="180"/>
+      <c r="E106" s="243"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="181"/>
+      <c r="H106" s="181"/>
+      <c r="I106" s="181"/>
+      <c r="J106" s="182"/>
+      <c r="K106" s="177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -10811,21 +11464,21 @@
       <c r="AC106" s="1"/>
     </row>
     <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="180">
+      <c r="A107" s="178">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="B107" s="181"/>
-      <c r="C107" s="182"/>
-      <c r="D107" s="182"/>
-      <c r="E107" s="182"/>
-      <c r="F107" s="183"/>
-      <c r="G107" s="183"/>
-      <c r="H107" s="183"/>
-      <c r="I107" s="183"/>
-      <c r="J107" s="184"/>
-      <c r="K107" s="179" t="str">
-        <f t="shared" ref="K107" si="6">CONCATENATE(F107,I107)</f>
+        <v>105</v>
+      </c>
+      <c r="B107" s="179"/>
+      <c r="C107" s="180"/>
+      <c r="D107" s="180"/>
+      <c r="E107" s="243"/>
+      <c r="F107" s="181"/>
+      <c r="G107" s="181"/>
+      <c r="H107" s="181"/>
+      <c r="I107" s="181"/>
+      <c r="J107" s="182"/>
+      <c r="K107" s="177" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L107" s="1"/>
@@ -10847,46 +11500,120 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="110" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+    <row r="108" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="178">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="179"/>
+      <c r="C108" s="180"/>
+      <c r="D108" s="180"/>
+      <c r="E108" s="243"/>
+      <c r="F108" s="181"/>
+      <c r="G108" s="181"/>
+      <c r="H108" s="181"/>
+      <c r="I108" s="181"/>
+      <c r="J108" s="182"/>
+      <c r="K108" s="177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+    </row>
+    <row r="109" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="178">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="179"/>
+      <c r="C109" s="180"/>
+      <c r="D109" s="180"/>
+      <c r="E109" s="243"/>
+      <c r="F109" s="181"/>
+      <c r="G109" s="181"/>
+      <c r="H109" s="181"/>
+      <c r="I109" s="181"/>
+      <c r="J109" s="182"/>
+      <c r="K109" s="177" t="str">
+        <f t="shared" ref="K109" si="6">CONCATENATE(F109,I109)</f>
+        <v/>
+      </c>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="112" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M91:Q92"/>
     <mergeCell ref="M93:Q94"/>
+    <mergeCell ref="M95:Q96"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="M63:Q64"/>
+    <mergeCell ref="M77:Q78"/>
+    <mergeCell ref="M79:Q80"/>
+    <mergeCell ref="M40:Q41"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q58"/>
     <mergeCell ref="M59:Q60"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="M75:Q76"/>
-    <mergeCell ref="M77:Q78"/>
-    <mergeCell ref="M39:Q40"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q56"/>
-    <mergeCell ref="M57:Q58"/>
+    <mergeCell ref="M29:Q29"/>
     <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="M32:Q33"/>
-    <mergeCell ref="M34:Q36"/>
-    <mergeCell ref="M37:Q38"/>
+    <mergeCell ref="M31:Q33"/>
+    <mergeCell ref="M34:Q37"/>
+    <mergeCell ref="M38:Q39"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M14:Q15"/>
-    <mergeCell ref="M12:Q13"/>
-    <mergeCell ref="M10:Q11"/>
+    <mergeCell ref="M13:Q15"/>
+    <mergeCell ref="M11:Q12"/>
+    <mergeCell ref="M9:Q10"/>
     <mergeCell ref="M6:Q7"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <dataValidations xWindow="1164" yWindow="337" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I107" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I109" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>severityLevel</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F107" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F109" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>errorCriteria</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G107" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G109" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>INDIRECT(SUBSTITUTE($F3," ",""))</formula1>
     </dataValidation>
   </dataValidations>
@@ -10903,7 +11630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E8" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11193,31 +11920,31 @@
         <v>83</v>
       </c>
       <c r="D12" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"accuracyCritical")</f>
-        <v>17</v>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyCritical")</f>
+        <v>29</v>
       </c>
       <c r="E12" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyNeutral")</f>
         <v>1</v>
       </c>
       <c r="F12" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyMinor")</f>
-        <v>10</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyMinor")</f>
+        <v>13</v>
       </c>
       <c r="G12" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyMajor")</f>
-        <v>6</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyMajor")</f>
+        <v>14</v>
       </c>
       <c r="H12" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyCritical")</f>
-        <v>0</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyCritical")</f>
+        <v>1</v>
       </c>
       <c r="I12" s="52">
         <f>E12*PenaltiesThresholds!B4+F12*PenaltiesThresholds!B5+G12*PenaltiesThresholds!B6+H12*PenaltiesThresholds!B7</f>
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J12" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"accuracyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyKudos")</f>
         <v>0</v>
       </c>
       <c r="K12" s="46"/>
@@ -11237,31 +11964,31 @@
         <v>139</v>
       </c>
       <c r="D13" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"fluencyCritical")</f>
-        <v>5</v>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyCritical")</f>
+        <v>9</v>
       </c>
       <c r="E13" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyNeutral")</f>
         <v>1</v>
       </c>
       <c r="F13" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyMinor")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="52">
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyMajor")</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="52">
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyCritical")</f>
         <v>2</v>
-      </c>
-      <c r="G13" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyMajor")</f>
-        <v>2</v>
-      </c>
-      <c r="H13" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyCritical")</f>
-        <v>0</v>
       </c>
       <c r="I13" s="52">
         <f>E13*PenaltiesThresholds!B4+F13*PenaltiesThresholds!B5+G13*PenaltiesThresholds!B6+H13*PenaltiesThresholds!B7</f>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J13" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"fluencyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyKudos")</f>
         <v>0</v>
       </c>
       <c r="K13" s="46"/>
@@ -11281,23 +12008,23 @@
         <v>82</v>
       </c>
       <c r="D14" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"terminologyCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="E14" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F14" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyMinor")</f>
         <v>0</v>
       </c>
       <c r="G14" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyMajor")</f>
         <v>0</v>
       </c>
       <c r="H14" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="I14" s="52">
@@ -11305,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"terminologyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyKudos")</f>
         <v>0</v>
       </c>
       <c r="K14" s="46"/>
@@ -11325,23 +12052,23 @@
         <v>84</v>
       </c>
       <c r="D15" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E15" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleNeutral")</f>
         <v>0</v>
       </c>
       <c r="F15" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleMinor")</f>
         <v>0</v>
       </c>
       <c r="G15" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleMajor")</f>
         <v>0</v>
       </c>
       <c r="H15" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="I15" s="52">
@@ -11349,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"styleKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleKudos")</f>
         <v>0</v>
       </c>
       <c r="K15" s="46"/>
@@ -11369,23 +12096,23 @@
         <v>157</v>
       </c>
       <c r="D16" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"designCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="E16" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designNeutral")</f>
         <v>0</v>
       </c>
       <c r="F16" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designMinor")</f>
         <v>0</v>
       </c>
       <c r="G16" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designMajor")</f>
         <v>0</v>
       </c>
       <c r="H16" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="I16" s="52">
@@ -11393,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"designKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designKudos")</f>
         <v>0</v>
       </c>
       <c r="K16" s="46"/>
@@ -11413,23 +12140,23 @@
         <v>164</v>
       </c>
       <c r="D17" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"locale conventionCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="E17" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionNeutral")</f>
         <v>0</v>
       </c>
       <c r="F17" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionMinor")</f>
         <v>0</v>
       </c>
       <c r="G17" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionMajor")</f>
         <v>0</v>
       </c>
       <c r="H17" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="I17" s="52">
@@ -11437,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"locale conventionKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionKudos")</f>
         <v>0</v>
       </c>
       <c r="K17" s="46"/>
@@ -11457,23 +12184,23 @@
         <v>172</v>
       </c>
       <c r="D18" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"verityCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="E18" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityNeutral")</f>
         <v>0</v>
       </c>
       <c r="F18" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityMinor")</f>
         <v>0</v>
       </c>
       <c r="G18" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityMajor")</f>
         <v>0</v>
       </c>
       <c r="H18" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="I18" s="52">
@@ -11481,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"verityKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityKudos")</f>
         <v>0</v>
       </c>
       <c r="K18" s="46"/>
@@ -11501,23 +12228,23 @@
         <v>87</v>
       </c>
       <c r="D19" s="58">
-        <f>COUNTIFS( ReviewEnvironment!K3:K107,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K107,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K107,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K107,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E19" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherNeutral")</f>
         <v>0</v>
       </c>
       <c r="F19" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherMinor")</f>
         <v>0</v>
       </c>
       <c r="G19" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherMajor")</f>
         <v>0</v>
       </c>
       <c r="H19" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherCritical")</f>
         <v>0</v>
       </c>
       <c r="I19" s="52">
@@ -11525,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="52">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$107,"otherKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherKudos")</f>
         <v>0</v>
       </c>
       <c r="K19" s="46"/>
@@ -11588,7 +12315,7 @@
       </c>
       <c r="D22" s="90">
         <f t="shared" ref="D22:J22" si="0">SUM(D12:D21)</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E22" s="93">
         <f t="shared" si="0"/>
@@ -11596,19 +12323,19 @@
       </c>
       <c r="F22" s="93">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="93">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H22" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="94">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="J22" s="94">
         <f t="shared" si="0"/>
@@ -11786,10 +12513,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="16"/>
@@ -11892,7 +12619,7 @@
     </row>
     <row r="4" spans="1:29" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="226" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="55"/>
@@ -11929,7 +12656,7 @@
     </row>
     <row r="5" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
-      <c r="B5" s="229"/>
+      <c r="B5" s="227"/>
       <c r="C5" s="55" t="s">
         <v>119</v>
       </c>
@@ -11966,7 +12693,7 @@
     </row>
     <row r="6" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
-      <c r="B6" s="229"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="55" t="s">
         <v>120</v>
       </c>
@@ -12003,7 +12730,7 @@
     </row>
     <row r="7" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
-      <c r="B7" s="229"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="55" t="s">
         <v>121</v>
       </c>
@@ -12040,7 +12767,7 @@
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="50"/>
-      <c r="B8" s="229"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="55" t="s">
         <v>122</v>
       </c>
@@ -12077,7 +12804,7 @@
     </row>
     <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="50"/>
-      <c r="B9" s="229"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="55" t="s">
         <v>123</v>
       </c>
@@ -12114,7 +12841,7 @@
     </row>
     <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
-      <c r="B10" s="229"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="55" t="s">
         <v>86</v>
       </c>
@@ -12151,7 +12878,7 @@
     </row>
     <row r="11" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="50"/>
-      <c r="B11" s="230"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="55" t="s">
         <v>124</v>
       </c>
@@ -12190,7 +12917,7 @@
       <c r="A12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="217" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="99"/>
@@ -12227,7 +12954,7 @@
     </row>
     <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
-      <c r="B13" s="226"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="99" t="s">
         <v>140</v>
       </c>
@@ -12264,7 +12991,7 @@
     </row>
     <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
-      <c r="B14" s="226"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="99" t="s">
         <v>141</v>
       </c>
@@ -12301,7 +13028,7 @@
     </row>
     <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="50"/>
-      <c r="B15" s="226"/>
+      <c r="B15" s="224"/>
       <c r="C15" s="99" t="s">
         <v>142</v>
       </c>
@@ -12338,7 +13065,7 @@
     </row>
     <row r="16" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="50"/>
-      <c r="B16" s="226"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="99" t="s">
         <v>143</v>
       </c>
@@ -12375,7 +13102,7 @@
     </row>
     <row r="17" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="50"/>
-      <c r="B17" s="226"/>
+      <c r="B17" s="224"/>
       <c r="C17" s="99" t="s">
         <v>144</v>
       </c>
@@ -12412,7 +13139,7 @@
     </row>
     <row r="18" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
-      <c r="B18" s="226"/>
+      <c r="B18" s="224"/>
       <c r="C18" s="99" t="s">
         <v>145</v>
       </c>
@@ -12449,7 +13176,7 @@
     </row>
     <row r="19" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="50"/>
-      <c r="B19" s="227"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="99" t="s">
         <v>146</v>
       </c>
@@ -12486,7 +13213,7 @@
     </row>
     <row r="20" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="223" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="55"/>
@@ -12523,7 +13250,7 @@
     </row>
     <row r="21" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
-      <c r="B21" s="226"/>
+      <c r="B21" s="224"/>
       <c r="C21" s="99" t="s">
         <v>147</v>
       </c>
@@ -12560,7 +13287,7 @@
     </row>
     <row r="22" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
-      <c r="B22" s="227"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="99" t="s">
         <v>148</v>
       </c>
@@ -12597,7 +13324,7 @@
     </row>
     <row r="23" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="50"/>
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="223" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="55"/>
@@ -12634,7 +13361,7 @@
     </row>
     <row r="24" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="50"/>
-      <c r="B24" s="226"/>
+      <c r="B24" s="224"/>
       <c r="C24" s="99" t="s">
         <v>152</v>
       </c>
@@ -12671,7 +13398,7 @@
     </row>
     <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="50"/>
-      <c r="B25" s="226"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="99" t="s">
         <v>153</v>
       </c>
@@ -12708,7 +13435,7 @@
     </row>
     <row r="26" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="50"/>
-      <c r="B26" s="226"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="99" t="s">
         <v>154</v>
       </c>
@@ -12745,7 +13472,7 @@
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="50"/>
-      <c r="B27" s="226"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="99" t="s">
         <v>155</v>
       </c>
@@ -12782,7 +13509,7 @@
     </row>
     <row r="28" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="50"/>
-      <c r="B28" s="227"/>
+      <c r="B28" s="225"/>
       <c r="C28" s="99" t="s">
         <v>156</v>
       </c>
@@ -12819,7 +13546,7 @@
     </row>
     <row r="29" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="50"/>
-      <c r="B29" s="219" t="s">
+      <c r="B29" s="217" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="99"/>
@@ -12856,7 +13583,7 @@
     </row>
     <row r="30" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="50"/>
-      <c r="B30" s="220"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="99" t="s">
         <v>159</v>
       </c>
@@ -12893,7 +13620,7 @@
     </row>
     <row r="31" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="50"/>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="99" t="s">
         <v>160</v>
       </c>
@@ -12930,7 +13657,7 @@
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="50"/>
-      <c r="B32" s="220"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="99" t="s">
         <v>161</v>
       </c>
@@ -12967,7 +13694,7 @@
     </row>
     <row r="33" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="50"/>
-      <c r="B33" s="220"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="99" t="s">
         <v>162</v>
       </c>
@@ -13004,7 +13731,7 @@
     </row>
     <row r="34" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="50"/>
-      <c r="B34" s="221"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="119" t="s">
         <v>163</v>
       </c>
@@ -13041,7 +13768,7 @@
     </row>
     <row r="35" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="50"/>
-      <c r="B35" s="222" t="s">
+      <c r="B35" s="220" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="99"/>
@@ -13078,7 +13805,7 @@
     </row>
     <row r="36" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="50"/>
-      <c r="B36" s="220"/>
+      <c r="B36" s="218"/>
       <c r="C36" s="99" t="s">
         <v>167</v>
       </c>
@@ -13115,7 +13842,7 @@
     </row>
     <row r="37" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="50"/>
-      <c r="B37" s="220"/>
+      <c r="B37" s="218"/>
       <c r="C37" s="99" t="s">
         <v>166</v>
       </c>
@@ -13152,7 +13879,7 @@
     </row>
     <row r="38" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="50"/>
-      <c r="B38" s="220"/>
+      <c r="B38" s="218"/>
       <c r="C38" s="99" t="s">
         <v>168</v>
       </c>
@@ -13189,7 +13916,7 @@
     </row>
     <row r="39" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="50"/>
-      <c r="B39" s="220"/>
+      <c r="B39" s="218"/>
       <c r="C39" s="99" t="s">
         <v>169</v>
       </c>
@@ -13226,7 +13953,7 @@
     </row>
     <row r="40" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="50"/>
-      <c r="B40" s="220"/>
+      <c r="B40" s="218"/>
       <c r="C40" s="119" t="s">
         <v>170</v>
       </c>
@@ -13263,7 +13990,7 @@
     </row>
     <row r="41" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="50"/>
-      <c r="B41" s="223"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="119" t="s">
         <v>171</v>
       </c>
@@ -13300,7 +14027,7 @@
     </row>
     <row r="42" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="50"/>
-      <c r="B42" s="222" t="s">
+      <c r="B42" s="220" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="99"/>
@@ -13337,7 +14064,7 @@
     </row>
     <row r="43" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="50"/>
-      <c r="B43" s="223"/>
+      <c r="B43" s="221"/>
       <c r="C43" s="99" t="s">
         <v>173</v>
       </c>
@@ -13972,13 +14699,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -14091,12 +14818,12 @@
       </c>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="237" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="239"/>
       <c r="K5" s="53"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -14122,10 +14849,10 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="232"/>
       <c r="K6" s="53"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -14151,10 +14878,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="234"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
       <c r="K7" s="53"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -14175,10 +14902,10 @@
       <c r="D8" s="53"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
       <c r="K8" s="10"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -14199,12 +14926,12 @@
       <c r="D9" s="53"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="232" t="s">
+      <c r="G9" s="230" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
       <c r="K9" s="53"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -14222,10 +14949,10 @@
       <c r="D10" s="53"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="232"/>
       <c r="K10" s="53"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -14244,18 +14971,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="229" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="53"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="238"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="236"/>
       <c r="K11" s="53"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
